--- a/lira/C_rsu.xlsx
+++ b/lira/C_rsu.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ponomarev\YandexDisk-palexxvlad\Документы\Python Scripts\NDM_python\Lira_rsu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Документы\Python Scripts\NDM_python\lira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9AAD44-683B-4399-9CFB-068D8C4FBC64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7D4E8C-21BB-45CC-934B-98C2CED6EFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1095" windowWidth="27555" windowHeight="14370"/>
+    <workbookView xWindow="1230" yWindow="1245" windowWidth="27570" windowHeight="14355"/>
   </bookViews>
   <sheets>
     <sheet name=" " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="49">
   <si>
     <t>Таблица РСУ</t>
   </si>
@@ -79,22 +79,22 @@
     <t>A1</t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 8 9 10 </t>
+    <t xml:space="preserve">  1 3 8 9 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 2 6 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 4 8 9 10 </t>
+    <t xml:space="preserve">  1 4 8 9 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 6 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 2 4 8 9 10 </t>
+    <t xml:space="preserve">  1 2 3 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 8 </t>
+    <t xml:space="preserve">  1 2 3 8 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 2 4 8 </t>
@@ -103,139 +103,76 @@
     <t xml:space="preserve">  1 4 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 2 3 8 9 10 </t>
+    <t xml:space="preserve">  1 3 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 6 8 9 10 </t>
+    <t xml:space="preserve">  1 2 4 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 2 3 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 7 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 3 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 5 8 9 10 11 </t>
+    <t xml:space="preserve">  1 6 8 9 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 3 7 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 8 9 10 11 </t>
+    <t xml:space="preserve">  1 2 5 8 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 5 8 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2 3 7 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 4 7 8 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2 5 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 4 7 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2 4 7 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 5 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2 3 7 8 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 3 7 8 9 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 2 5 7 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 4 7 8 9 10 11 </t>
+    <t xml:space="preserve">  1 2 4 7 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 7 8 9 10 11 </t>
+    <t xml:space="preserve">  1 2 6 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 2 5 8 </t>
+    <t xml:space="preserve">  1 2 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 5 7 8 11 </t>
+    <t xml:space="preserve">  1 2 5 7 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 7 8 11 </t>
+    <t xml:space="preserve">  1 5 7 8 9 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 2 5 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 6 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 4 7 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 4 7 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 4 7 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 4 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 4 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 6 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 3 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 6 7 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 4 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 4 7 8 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 5 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 7 8 9 10 </t>
+    <t xml:space="preserve">  1 8 9 </t>
   </si>
   <si>
     <t xml:space="preserve">  1 8 </t>
   </si>
   <si>
-    <t xml:space="preserve">  1 3 8 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 4 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 5 8 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 5 7 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 3 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 8 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 5 7 8 9 10 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 7 8 9 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 2 3 7 8 </t>
+    <t xml:space="preserve">  1 2 6 7 8 9 </t>
   </si>
 </sst>
 </file>
@@ -779,9 +716,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -868,7 +805,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -886,22 +823,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>-13.142761</v>
+        <v>-13.436104</v>
       </c>
       <c r="H4" s="3">
-        <v>0.21689600000000001</v>
+        <v>0.29060599999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>16.027016</v>
+        <v>18.480232000000001</v>
       </c>
       <c r="J4" s="3">
-        <v>-3.489789</v>
+        <v>-3.7507700000000002</v>
       </c>
       <c r="K4" s="3">
-        <v>7.403702</v>
+        <v>7.7202590000000004</v>
       </c>
       <c r="L4" s="3">
-        <v>0.79300899999999996</v>
+        <v>0.89216799999999996</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>17</v>
@@ -909,7 +846,7 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -927,22 +864,22 @@
         <v>2</v>
       </c>
       <c r="G5" s="3">
-        <v>-22.850709999999999</v>
+        <v>-22.845770000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.16325500000000001</v>
+        <v>0.203178</v>
       </c>
       <c r="I5" s="3">
-        <v>-12.572099</v>
+        <v>-13.218748</v>
       </c>
       <c r="J5" s="3">
-        <v>3.0618590000000001</v>
+        <v>3.130652</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.39520300000000003</v>
+        <v>0.47160299999999999</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.126355</v>
+        <v>0.13528699999999999</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>18</v>
@@ -950,7 +887,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -968,22 +905,22 @@
         <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>-13.516932000000001</v>
+        <v>-13.203927999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.40359899999999999</v>
+        <v>-8.5611000000000007E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>19.847332000000002</v>
+        <v>15.523332999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>-3.8962059999999998</v>
+        <v>-3.4362059999999999</v>
       </c>
       <c r="K6" s="3">
-        <v>-7.7560969999999996</v>
+        <v>-7.2527270000000001</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.91352599999999995</v>
+        <v>-0.75817900000000005</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>19</v>
@@ -991,40 +928,40 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
       <c r="G7" s="3">
-        <v>-13.363606000000001</v>
+        <v>-13.364031000000001</v>
       </c>
       <c r="H7" s="3">
-        <v>-7.4223999999999998E-2</v>
+        <v>0.102412</v>
       </c>
       <c r="I7" s="3">
-        <v>-11.847505</v>
+        <v>-12.007529999999999</v>
       </c>
       <c r="J7" s="3">
-        <v>2.984775</v>
+        <v>3.0017990000000001</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.184555</v>
+        <v>0.25039099999999997</v>
       </c>
       <c r="L7" s="3">
-        <v>-6.1262999999999998E-2</v>
+        <v>6.8802000000000002E-2</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>20</v>
@@ -1032,7 +969,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1047,25 +984,25 @@
         <v>16</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3">
-        <v>-23.004035999999999</v>
+        <v>-22.917840999999999</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.49263000000000001</v>
+        <v>0.391372</v>
       </c>
       <c r="I8" s="3">
-        <v>19.122737999999998</v>
+        <v>17.269013999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>-3.819121</v>
+        <v>-3.6219169999999998</v>
       </c>
       <c r="K8" s="3">
-        <v>-7.9667450000000004</v>
+        <v>7.9414709999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.97861900000000002</v>
+        <v>0.95865199999999995</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>21</v>
@@ -1073,13 +1010,13 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -1091,22 +1028,22 @@
         <v>9</v>
       </c>
       <c r="G9" s="3">
-        <v>-13.118614000000001</v>
+        <v>-22.900455000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>0.21703600000000001</v>
+        <v>0.39162000000000002</v>
       </c>
       <c r="I9" s="3">
-        <v>13.814352</v>
+        <v>15.674568000000001</v>
       </c>
       <c r="J9" s="3">
-        <v>-3.2543989999999998</v>
+        <v>-3.4522949999999999</v>
       </c>
       <c r="K9" s="3">
-        <v>7.4014040000000003</v>
+        <v>7.9398479999999996</v>
       </c>
       <c r="L9" s="3">
-        <v>0.79275099999999998</v>
+        <v>0.95847099999999996</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>22</v>
@@ -1114,7 +1051,7 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1132,22 +1069,22 @@
         <v>24</v>
       </c>
       <c r="G10" s="3">
-        <v>-22.979889</v>
+        <v>-22.668279999999999</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.49249100000000001</v>
+        <v>1.5403E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>16.910074000000002</v>
+        <v>12.717669000000001</v>
       </c>
       <c r="J10" s="3">
-        <v>-3.5837310000000002</v>
+        <v>-3.137731</v>
       </c>
       <c r="K10" s="3">
-        <v>-7.9690430000000001</v>
+        <v>-7.0331380000000001</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.97887599999999997</v>
+        <v>-0.69187500000000002</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>23</v>
@@ -1155,7 +1092,7 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1173,22 +1110,22 @@
         <v>25</v>
       </c>
       <c r="G11" s="3">
-        <v>-13.492785</v>
+        <v>-13.186543</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.40345999999999999</v>
+        <v>-8.5362999999999994E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>17.634668000000001</v>
+        <v>13.928886</v>
       </c>
       <c r="J11" s="3">
-        <v>-3.6608160000000001</v>
+        <v>-3.2665839999999999</v>
       </c>
       <c r="K11" s="3">
-        <v>-7.7583950000000002</v>
+        <v>-7.2543499999999996</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.91378400000000004</v>
+        <v>-0.75836000000000003</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>24</v>
@@ -1196,10 +1133,10 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1211,33 +1148,33 @@
         <v>16</v>
       </c>
       <c r="F12" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>-22.629866</v>
+        <v>-16.713842</v>
       </c>
       <c r="H12" s="3">
-        <v>0.12786500000000001</v>
+        <v>0.391372</v>
       </c>
       <c r="I12" s="3">
-        <v>15.302421000000001</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>-3.4127040000000002</v>
+        <v>-5.2342E-2</v>
       </c>
       <c r="K12" s="3">
-        <v>7.1930540000000001</v>
+        <v>-1.06986</v>
       </c>
       <c r="L12" s="3">
-        <v>0.72791700000000004</v>
+        <v>0.95865199999999995</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1252,33 +1189,33 @@
         <v>16</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>-7.2887849999999998</v>
+        <v>-7.2147180000000004</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.40345999999999999</v>
+        <v>0.290854</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>-9.1241000000000003E-2</v>
+        <v>-1.1573E-2</v>
       </c>
       <c r="K13" s="3">
-        <v>0.83117799999999997</v>
+        <v>-0.66603599999999996</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.91378400000000004</v>
+        <v>0.89198599999999995</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1293,33 +1230,33 @@
         <v>16</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>-16.425865000000002</v>
+        <v>-16.481667000000002</v>
       </c>
       <c r="H14" s="3">
-        <v>0.12786500000000001</v>
+        <v>1.5155999999999999E-2</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0.15687000000000001</v>
+        <v>0.26222200000000001</v>
       </c>
       <c r="K14" s="3">
-        <v>0.350634</v>
+        <v>-0.52959100000000003</v>
       </c>
       <c r="L14" s="3">
-        <v>0.72791700000000004</v>
+        <v>-0.69169400000000003</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1334,39 +1271,39 @@
         <v>16</v>
       </c>
       <c r="F15" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3">
-        <v>-16.800035000000001</v>
+        <v>-16.696456999999999</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.49263000000000001</v>
+        <v>0.39162000000000002</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.24954599999999999</v>
+        <v>0.11728</v>
       </c>
       <c r="K15" s="3">
-        <v>1.2322690000000001</v>
+        <v>-1.06978</v>
       </c>
       <c r="L15" s="3">
-        <v>-0.97861900000000002</v>
+        <v>0.95847099999999996</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
@@ -1375,39 +1312,39 @@
         <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>-6.9146140000000003</v>
+        <v>-6.9999269999999996</v>
       </c>
       <c r="H16" s="3">
-        <v>0.21703600000000001</v>
+        <v>-8.5611000000000007E-2</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0.31517499999999998</v>
+        <v>0.13336899999999999</v>
       </c>
       <c r="K16" s="3">
-        <v>-5.0457000000000002E-2</v>
+        <v>-0.12584699999999999</v>
       </c>
       <c r="L16" s="3">
-        <v>0.79275099999999998</v>
+        <v>-0.75817900000000005</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -1419,30 +1356,30 @@
         <v>15</v>
       </c>
       <c r="G17" s="3">
-        <v>-16.775887999999998</v>
+        <v>-6.9825419999999996</v>
       </c>
       <c r="H17" s="3">
-        <v>-0.49249100000000001</v>
+        <v>-8.5362999999999994E-2</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>-1.4156999999999999E-2</v>
+        <v>0.30299100000000001</v>
       </c>
       <c r="K17" s="3">
-        <v>1.2323949999999999</v>
+        <v>-0.12576699999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.97887599999999997</v>
+        <v>-0.75836000000000003</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1457,33 +1394,33 @@
         <v>16</v>
       </c>
       <c r="F18" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3">
-        <v>-6.9387610000000004</v>
+        <v>-7.177416</v>
       </c>
       <c r="H18" s="3">
-        <v>0.21689600000000001</v>
+        <v>0.102164</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>7.9785999999999996E-2</v>
+        <v>-0.61662700000000004</v>
       </c>
       <c r="K18" s="3">
-        <v>-5.0583000000000003E-2</v>
+        <v>-0.39643</v>
       </c>
       <c r="L18" s="3">
-        <v>0.79300899999999996</v>
+        <v>6.8983000000000003E-2</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1498,36 +1435,36 @@
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3">
-        <v>-7.1837530000000003</v>
+        <v>-16.464281</v>
       </c>
       <c r="H19" s="3">
-        <v>-7.4364E-2</v>
+        <v>1.5403E-2</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>-0.69941900000000001</v>
+        <v>0.43184400000000001</v>
       </c>
       <c r="K19" s="3">
-        <v>0.39118799999999998</v>
+        <v>-0.52951099999999995</v>
       </c>
       <c r="L19" s="3">
-        <v>-6.1004999999999997E-2</v>
+        <v>-0.69187500000000002</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1539,33 +1476,33 @@
         <v>16</v>
       </c>
       <c r="F20" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>-16.401717999999999</v>
+        <v>-16.784625999999999</v>
       </c>
       <c r="H20" s="3">
-        <v>0.12800500000000001</v>
+        <v>4.2835999999999999E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>4.4441930000000003</v>
       </c>
       <c r="J20" s="3">
-        <v>0.39226</v>
+        <v>-0.58863900000000002</v>
       </c>
       <c r="K20" s="3">
-        <v>0.35076099999999999</v>
+        <v>1.99064</v>
       </c>
       <c r="L20" s="3">
-        <v>0.72765899999999994</v>
+        <v>0.26459300000000002</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1580,33 +1517,33 @@
         <v>16</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3">
-        <v>-7.0753110000000001</v>
+        <v>-57.913795</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.10295600000000001</v>
+        <v>-3.5242000000000002E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>3.041347</v>
+        <v>-3.0338289999999999</v>
       </c>
       <c r="J21" s="3">
-        <v>-1.004634</v>
+        <v>0.40183400000000002</v>
       </c>
       <c r="K21" s="3">
-        <v>-1.417151</v>
+        <v>-2.7618200000000002</v>
       </c>
       <c r="L21" s="3">
-        <v>-1.1274120000000001</v>
+        <v>-0.36617300000000003</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1621,33 +1558,33 @@
         <v>16</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3">
-        <v>-12.844775</v>
+        <v>-57.76643</v>
       </c>
       <c r="H22" s="3">
-        <v>7.4882000000000004E-2</v>
+        <v>3.4950000000000002E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>-3.796252</v>
+        <v>-6.3532330000000004</v>
       </c>
       <c r="J22" s="3">
-        <v>1.8866369999999999</v>
+        <v>0.84149200000000002</v>
       </c>
       <c r="K22" s="3">
-        <v>-1.3676809999999999</v>
+        <v>2.2052520000000002</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.94327899999999998</v>
+        <v>0.29383100000000001</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1662,25 +1599,25 @@
         <v>16</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>-10.455087000000001</v>
+        <v>-17.015319999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>-0.12703600000000001</v>
+        <v>-4.7343999999999997E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>3.2800340000000001</v>
+        <v>-3.8665720000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>-0.92079</v>
+        <v>0.51213200000000003</v>
       </c>
       <c r="K23" s="3">
-        <v>-2.204072</v>
+        <v>-2.9149219999999998</v>
       </c>
       <c r="L23" s="3">
-        <v>-1.640773</v>
+        <v>-0.38724599999999998</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>30</v>
@@ -1688,7 +1625,7 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1703,25 +1640,25 @@
         <v>16</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
-        <v>-9.4649979999999996</v>
+        <v>-57.683098000000001</v>
       </c>
       <c r="H24" s="3">
-        <v>9.8961999999999994E-2</v>
+        <v>5.4938000000000001E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>-4.0349399999999997</v>
+        <v>5.2769360000000001</v>
       </c>
       <c r="J24" s="3">
-        <v>1.802794</v>
+        <v>-0.69893799999999995</v>
       </c>
       <c r="K24" s="3">
-        <v>-0.58076000000000005</v>
+        <v>2.1437430000000002</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.42991699999999999</v>
+        <v>0.28566599999999998</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>31</v>
@@ -1729,7 +1666,7 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1744,33 +1681,33 @@
         <v>16</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3">
-        <v>-12.233829</v>
+        <v>-16.867958000000002</v>
       </c>
       <c r="H25" s="3">
-        <v>8.3694000000000005E-2</v>
+        <v>2.2846999999999999E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>-3.8579629999999998</v>
+        <v>-7.1859760000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>1.8903300000000001</v>
+        <v>0.95179100000000005</v>
       </c>
       <c r="K25" s="3">
-        <v>-1.3154140000000001</v>
+        <v>2.052149</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.91179100000000002</v>
+        <v>0.27275700000000003</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1785,33 +1722,33 @@
         <v>16</v>
       </c>
       <c r="F26" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3">
-        <v>-7.6862560000000002</v>
+        <v>-16.867197000000001</v>
       </c>
       <c r="H26" s="3">
-        <v>-0.11176800000000001</v>
+        <v>2.283E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>3.1030570000000002</v>
+        <v>-7.1628480000000003</v>
       </c>
       <c r="J26" s="3">
-        <v>-1.008327</v>
+        <v>0.94872699999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>-1.469417</v>
+        <v>2.0579610000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>-1.1588989999999999</v>
+        <v>0.27352900000000002</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1829,30 +1766,30 @@
         <v>12</v>
       </c>
       <c r="G27" s="3">
-        <v>-12.129536</v>
+        <v>-57.929634</v>
       </c>
       <c r="H27" s="3">
-        <v>8.1664E-2</v>
+        <v>-3.0383E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>-3.6985749999999999</v>
+        <v>-2.0788959999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>1.7650920000000001</v>
+        <v>0.27535199999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>-1.3516269999999999</v>
+        <v>-2.6131720000000001</v>
       </c>
       <c r="L27" s="3">
-        <v>-1.030659</v>
+        <v>-0.34642800000000001</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1867,33 +1804,33 @@
         <v>16</v>
       </c>
       <c r="F28" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G28" s="3">
-        <v>-12.223595</v>
+        <v>-16.883037999999999</v>
       </c>
       <c r="H28" s="3">
-        <v>8.9868000000000003E-2</v>
+        <v>2.7689999999999999E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>-3.8626809999999998</v>
+        <v>-6.2079139999999997</v>
       </c>
       <c r="J28" s="3">
-        <v>1.8960300000000001</v>
+        <v>0.82224600000000003</v>
       </c>
       <c r="K28" s="3">
-        <v>-1.233636</v>
+        <v>2.2066080000000001</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.88297099999999995</v>
+        <v>0.29327399999999998</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1908,33 +1845,33 @@
         <v>16</v>
       </c>
       <c r="F29" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G29" s="3">
-        <v>-7.696491</v>
+        <v>-57.781506</v>
       </c>
       <c r="H29" s="3">
-        <v>-0.117941</v>
+        <v>3.9792000000000001E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>3.1077750000000002</v>
+        <v>-5.3751709999999999</v>
       </c>
       <c r="J29" s="3">
-        <v>-1.014027</v>
+        <v>0.711947</v>
       </c>
       <c r="K29" s="3">
-        <v>-1.5511950000000001</v>
+        <v>2.3597109999999999</v>
       </c>
       <c r="L29" s="3">
-        <v>-1.1877200000000001</v>
+        <v>0.31434800000000002</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1949,39 +1886,39 @@
         <v>16</v>
       </c>
       <c r="F30" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G30" s="3">
-        <v>-12.844445</v>
+        <v>-57.782268999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>7.4801000000000006E-2</v>
+        <v>3.9808999999999997E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>-3.7953779999999999</v>
+        <v>-5.3982989999999997</v>
       </c>
       <c r="J30" s="3">
-        <v>1.8862859999999999</v>
+        <v>0.71501099999999995</v>
       </c>
       <c r="K30" s="3">
-        <v>-1.365022</v>
+        <v>2.3538990000000002</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.94214200000000003</v>
+        <v>0.31357600000000002</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
@@ -1990,39 +1927,39 @@
         <v>16</v>
       </c>
       <c r="F31" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G31" s="3">
-        <v>-7.0756410000000001</v>
+        <v>-17.03116</v>
       </c>
       <c r="H31" s="3">
-        <v>-0.10287499999999999</v>
+        <v>-4.2485000000000002E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>3.040473</v>
+        <v>-2.9116390000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>-1.004283</v>
+        <v>0.38565100000000002</v>
       </c>
       <c r="K31" s="3">
-        <v>-1.41981</v>
+        <v>-2.7662749999999998</v>
       </c>
       <c r="L31" s="3">
-        <v>-1.1285480000000001</v>
+        <v>-0.367502</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
@@ -2031,39 +1968,39 @@
         <v>16</v>
       </c>
       <c r="F32" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3">
-        <v>-9.4653279999999995</v>
+        <v>-16.883799</v>
       </c>
       <c r="H32" s="3">
-        <v>9.9043999999999993E-2</v>
+        <v>2.7706999999999999E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>-4.0358140000000002</v>
+        <v>-6.2310420000000004</v>
       </c>
       <c r="J32" s="3">
-        <v>1.803145</v>
+        <v>0.82530899999999996</v>
       </c>
       <c r="K32" s="3">
-        <v>-0.58342000000000005</v>
+        <v>2.200796</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.43105300000000002</v>
+        <v>0.29250199999999998</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>15</v>
@@ -2072,39 +2009,39 @@
         <v>16</v>
       </c>
       <c r="F33" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G33" s="3">
-        <v>-10.454757000000001</v>
+        <v>-57.762680000000003</v>
       </c>
       <c r="H33" s="3">
-        <v>-0.12711700000000001</v>
+        <v>9.6659999999999992E-3</v>
       </c>
       <c r="I33" s="3">
-        <v>3.2809080000000002</v>
+        <v>-0.39175500000000002</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.92114200000000002</v>
+        <v>5.1887999999999997E-2</v>
       </c>
       <c r="K33" s="3">
-        <v>-2.2014119999999999</v>
+        <v>-0.25724799999999998</v>
       </c>
       <c r="L33" s="3">
-        <v>-1.639637</v>
+        <v>-3.3383999999999997E-2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
@@ -2113,39 +2050,39 @@
         <v>16</v>
       </c>
       <c r="F34" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3">
-        <v>-7.0855449999999998</v>
+        <v>-52.882885000000002</v>
       </c>
       <c r="H34" s="3">
-        <v>-0.109129</v>
+        <v>3.3237000000000003E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>3.0460639999999999</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J34" s="3">
-        <v>-1.0103340000000001</v>
+        <v>0.18915299999999999</v>
       </c>
       <c r="K34" s="3">
-        <v>-1.498929</v>
+        <v>-9.5289999999999993E-3</v>
       </c>
       <c r="L34" s="3">
-        <v>-1.1562319999999999</v>
+        <v>0.16034300000000001</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
@@ -2154,36 +2091,36 @@
         <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G35" s="3">
-        <v>-9.4752329999999994</v>
+        <v>-52.946635999999998</v>
       </c>
       <c r="H35" s="3">
-        <v>9.2788999999999996E-2</v>
+        <v>-3.0383E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>-4.0302220000000002</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="J35" s="3">
-        <v>1.7970930000000001</v>
+        <v>0.27535199999999999</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.66253799999999996</v>
+        <v>2.359E-3</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.45873799999999998</v>
+        <v>-0.34642800000000001</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -2195,39 +2132,39 @@
         <v>16</v>
       </c>
       <c r="F36" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3">
-        <v>-12.366367</v>
+        <v>-52.700099999999999</v>
       </c>
       <c r="H36" s="3">
-        <v>3.2578999999999997E-2</v>
+        <v>5.4938000000000001E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>-2.4417420000000001</v>
+        <v>-4.3000000000000002E-5</v>
       </c>
       <c r="J36" s="3">
-        <v>1.3584909999999999</v>
+        <v>-0.69893799999999995</v>
       </c>
       <c r="K36" s="3">
-        <v>-1.6686989999999999</v>
+        <v>-1.3037999999999999E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>-1.277987</v>
+        <v>0.28566599999999998</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
@@ -2236,33 +2173,33 @@
         <v>16</v>
       </c>
       <c r="F37" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3">
-        <v>-8.8784039999999997</v>
+        <v>-12.032321</v>
       </c>
       <c r="H37" s="3">
-        <v>-1.3212E-2</v>
+        <v>-4.7343999999999997E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>-0.39066699999999999</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="J37" s="3">
-        <v>0.37918600000000002</v>
+        <v>0.51213200000000003</v>
       </c>
       <c r="K37" s="3">
-        <v>-1.0077689999999999</v>
+        <v>8.7869999999999997E-3</v>
       </c>
       <c r="L37" s="3">
-        <v>-0.64633399999999996</v>
+        <v>-0.38724599999999998</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -2277,33 +2214,33 @@
         <v>16</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G38" s="3">
-        <v>-10.996776000000001</v>
+        <v>-11.884198</v>
       </c>
       <c r="H38" s="3">
-        <v>7.4882000000000004E-2</v>
+        <v>2.283E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>2.3963019999999999</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="J38" s="3">
-        <v>1.062198</v>
+        <v>0.94872699999999999</v>
       </c>
       <c r="K38" s="3">
-        <v>3.5510410000000001</v>
+        <v>-7.1859999999999997E-3</v>
       </c>
       <c r="L38" s="3">
-        <v>-1.39897</v>
+        <v>0.27352900000000002</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -2318,33 +2255,33 @@
         <v>16</v>
       </c>
       <c r="F39" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G39" s="3">
-        <v>-7.5229400000000002</v>
+        <v>-11.884959</v>
       </c>
       <c r="H39" s="3">
-        <v>9.0759000000000006E-2</v>
+        <v>2.2846999999999999E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>2.269558</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="J39" s="3">
-        <v>1.25214</v>
+        <v>0.95179100000000005</v>
       </c>
       <c r="K39" s="3">
-        <v>1.1228020000000001</v>
+        <v>-7.169E-3</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.28980099999999998</v>
+        <v>0.27275700000000003</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -2359,33 +2296,33 @@
         <v>16</v>
       </c>
       <c r="F40" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G40" s="3">
-        <v>-7.9961419999999999</v>
+        <v>-11.801627</v>
       </c>
       <c r="H40" s="3">
-        <v>-0.118224</v>
+        <v>4.2835999999999999E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.99081399999999997</v>
+        <v>-3.1999999999999999E-5</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.143621</v>
+        <v>-0.58863900000000002</v>
       </c>
       <c r="K40" s="3">
-        <v>2.240005</v>
+        <v>-7.0349999999999996E-3</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.48205199999999998</v>
+        <v>0.26459300000000002</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -2400,39 +2337,39 @@
         <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G41" s="3">
-        <v>-8.1338860000000004</v>
+        <v>-52.799270999999997</v>
       </c>
       <c r="H41" s="3">
-        <v>8.1947000000000006E-2</v>
+        <v>3.9808999999999997E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>2.3157589999999999</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="J41" s="3">
-        <v>1.248448</v>
+        <v>0.71501099999999995</v>
       </c>
       <c r="K41" s="3">
-        <v>1.202782</v>
+        <v>-1.3597E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.32128800000000002</v>
+        <v>0.31357600000000002</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
@@ -2441,39 +2378,39 @@
         <v>16</v>
       </c>
       <c r="F42" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G42" s="3">
-        <v>-8.6070879999999992</v>
+        <v>-12.048161</v>
       </c>
       <c r="H42" s="3">
-        <v>-0.12703600000000001</v>
+        <v>-4.2485000000000002E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>1.037015</v>
+        <v>2.3E-5</v>
       </c>
       <c r="J42" s="3">
-        <v>-0.147314</v>
+        <v>0.38565100000000002</v>
       </c>
       <c r="K42" s="3">
-        <v>2.319985</v>
+        <v>8.3630000000000006E-3</v>
       </c>
       <c r="L42" s="3">
-        <v>-0.51353899999999997</v>
+        <v>-0.367502</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
@@ -2482,39 +2419,39 @@
         <v>16</v>
       </c>
       <c r="F43" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3">
-        <v>-5.8484910000000001</v>
+        <v>-11.900798999999999</v>
       </c>
       <c r="H43" s="3">
-        <v>-0.117941</v>
+        <v>2.7706999999999999E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.47316200000000003</v>
+        <v>4.1E-5</v>
       </c>
       <c r="J43" s="3">
-        <v>-0.24055099999999999</v>
+        <v>0.82530899999999996</v>
       </c>
       <c r="K43" s="3">
-        <v>1.070036</v>
+        <v>-7.5929999999999999E-3</v>
       </c>
       <c r="L43" s="3">
-        <v>-6.0485999999999998E-2</v>
+        <v>0.29250199999999998</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
@@ -2523,33 +2460,33 @@
         <v>16</v>
       </c>
       <c r="F44" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G44" s="3">
-        <v>-10.375595000000001</v>
+        <v>-52.779682000000001</v>
       </c>
       <c r="H44" s="3">
-        <v>8.9868000000000003E-2</v>
+        <v>9.6659999999999992E-3</v>
       </c>
       <c r="I44" s="3">
-        <v>2.3693240000000002</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="J44" s="3">
-        <v>1.071591</v>
+        <v>5.1887999999999997E-2</v>
       </c>
       <c r="K44" s="3">
-        <v>3.4317920000000002</v>
+        <v>-5.1989999999999996E-3</v>
       </c>
       <c r="L44" s="3">
-        <v>-1.338662</v>
+        <v>-3.3383999999999997E-2</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -2564,36 +2501,36 @@
         <v>16</v>
       </c>
       <c r="F45" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G45" s="3">
-        <v>-10.281537</v>
+        <v>-52.798507999999998</v>
       </c>
       <c r="H45" s="3">
-        <v>8.1664E-2</v>
+        <v>3.9792000000000001E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>2.8334109999999999</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="J45" s="3">
-        <v>1.345377</v>
+        <v>0.711947</v>
       </c>
       <c r="K45" s="3">
-        <v>2.3727520000000002</v>
+        <v>-1.3615E-2</v>
       </c>
       <c r="L45" s="3">
-        <v>-0.74285400000000001</v>
+        <v>0.31434800000000002</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>2</v>
@@ -2605,36 +2542,36 @@
         <v>16</v>
       </c>
       <c r="F46" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G46" s="3">
-        <v>-10.902386999999999</v>
+        <v>-93.359855999999994</v>
       </c>
       <c r="H46" s="3">
-        <v>6.6597000000000003E-2</v>
+        <v>1.6864000000000001E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>2.8597869999999999</v>
+        <v>-9.4665929999999996</v>
       </c>
       <c r="J46" s="3">
-        <v>1.3356330000000001</v>
+        <v>4.1757489999999997</v>
       </c>
       <c r="K46" s="3">
-        <v>2.489887</v>
+        <v>0.240699</v>
       </c>
       <c r="L46" s="3">
-        <v>-0.80202600000000002</v>
+        <v>-3.4882000000000003E-2</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
         <v>2</v>
@@ -2646,36 +2583,36 @@
         <v>16</v>
       </c>
       <c r="F47" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>-10.892483</v>
+        <v>-93.370506000000006</v>
       </c>
       <c r="H47" s="3">
-        <v>7.2852E-2</v>
+        <v>1.8242000000000001E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>2.8796119999999998</v>
+        <v>-9.5894189999999995</v>
       </c>
       <c r="J47" s="3">
-        <v>1.3416840000000001</v>
+        <v>4.2106079999999997</v>
       </c>
       <c r="K47" s="3">
-        <v>2.4527320000000001</v>
+        <v>0.32375700000000002</v>
       </c>
       <c r="L47" s="3">
-        <v>-0.77434199999999997</v>
+        <v>-3.4719999999999998E-3</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
@@ -2687,39 +2624,39 @@
         <v>16</v>
       </c>
       <c r="F48" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>-5.2273110000000003</v>
+        <v>-52.807445999999999</v>
       </c>
       <c r="H48" s="3">
-        <v>-0.10295600000000001</v>
+        <v>2.0763E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.44618400000000003</v>
+        <v>-8.7300170000000001</v>
       </c>
       <c r="J48" s="3">
-        <v>-0.231158</v>
+        <v>3.9235600000000002</v>
       </c>
       <c r="K48" s="3">
-        <v>0.95078700000000005</v>
+        <v>0.272171</v>
       </c>
       <c r="L48" s="3">
-        <v>-1.7799999999999999E-4</v>
+        <v>-7.2389999999999998E-3</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
@@ -2728,39 +2665,39 @@
         <v>16</v>
       </c>
       <c r="F49" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G49" s="3">
-        <v>-7.533175</v>
+        <v>-80.821487000000005</v>
       </c>
       <c r="H49" s="3">
-        <v>8.4584999999999994E-2</v>
+        <v>1.35E-4</v>
       </c>
       <c r="I49" s="3">
-        <v>2.2503350000000002</v>
+        <v>-6.3218139999999998</v>
       </c>
       <c r="J49" s="3">
-        <v>1.24644</v>
+        <v>1.8985289999999999</v>
       </c>
       <c r="K49" s="3">
-        <v>1.1620710000000001</v>
+        <v>0.32638299999999998</v>
       </c>
       <c r="L49" s="3">
-        <v>-0.31862099999999999</v>
+        <v>0.26075900000000002</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
@@ -2769,36 +2706,36 @@
         <v>16</v>
       </c>
       <c r="F50" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G50" s="3">
-        <v>-5.2375449999999999</v>
+        <v>-52.818092</v>
       </c>
       <c r="H50" s="3">
-        <v>-0.109129</v>
+        <v>2.214E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.42696099999999998</v>
+        <v>-8.852843</v>
       </c>
       <c r="J50" s="3">
-        <v>-0.23685800000000001</v>
+        <v>3.9584190000000001</v>
       </c>
       <c r="K50" s="3">
-        <v>0.99005600000000005</v>
+        <v>0.35522900000000002</v>
       </c>
       <c r="L50" s="3">
-        <v>-2.8997999999999999E-2</v>
+        <v>2.4171000000000002E-2</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -2810,39 +2747,39 @@
         <v>16</v>
       </c>
       <c r="F51" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G51" s="3">
-        <v>-10.291771000000001</v>
+        <v>-80.849250999999995</v>
       </c>
       <c r="H51" s="3">
-        <v>7.5491000000000003E-2</v>
+        <v>-4.1731999999999998E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>2.8141880000000001</v>
+        <v>-6.2218280000000004</v>
       </c>
       <c r="J51" s="3">
-        <v>1.339677</v>
+        <v>1.4079809999999999</v>
       </c>
       <c r="K51" s="3">
-        <v>2.4120200000000001</v>
+        <v>-0.20186499999999999</v>
       </c>
       <c r="L51" s="3">
-        <v>-0.771675</v>
+        <v>-0.24751000000000001</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
@@ -2851,33 +2788,33 @@
         <v>16</v>
       </c>
       <c r="F52" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G52" s="3">
-        <v>-7.0304039999999999</v>
+        <v>-53.593975</v>
       </c>
       <c r="H52" s="3">
-        <v>-1.3212E-2</v>
+        <v>-4.0990000000000002E-3</v>
       </c>
       <c r="I52" s="3">
-        <v>1.201913</v>
+        <v>-7.3676370000000002</v>
       </c>
       <c r="J52" s="3">
-        <v>0.37918600000000002</v>
+        <v>2.4051200000000001</v>
       </c>
       <c r="K52" s="3">
-        <v>1.706833</v>
+        <v>0.50974200000000003</v>
       </c>
       <c r="L52" s="3">
-        <v>-0.64633399999999996</v>
+        <v>0.36143700000000001</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -2892,33 +2829,33 @@
         <v>16</v>
       </c>
       <c r="F53" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G53" s="3">
-        <v>-97.509452999999993</v>
+        <v>-80.034958000000003</v>
       </c>
       <c r="H53" s="3">
-        <v>3.8349999999999999E-3</v>
+        <v>2.4996999999999998E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>-2.5632510000000002</v>
+        <v>-7.6841939999999997</v>
       </c>
       <c r="J53" s="3">
-        <v>3.004235</v>
+        <v>3.4169679999999998</v>
       </c>
       <c r="K53" s="3">
-        <v>6.4156000000000005E-2</v>
+        <v>8.8812000000000002E-2</v>
       </c>
       <c r="L53" s="3">
-        <v>0.14396800000000001</v>
+        <v>-0.107917</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -2933,33 +2870,33 @@
         <v>16</v>
       </c>
       <c r="F54" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G54" s="3">
-        <v>-97.257698000000005</v>
+        <v>-94.184798999999998</v>
       </c>
       <c r="H54" s="3">
-        <v>5.9319999999999998E-3</v>
+        <v>-4.8487000000000002E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>-2.6095389999999998</v>
+        <v>-8.1270520000000008</v>
       </c>
       <c r="J54" s="3">
-        <v>3.0478070000000002</v>
+        <v>2.2016209999999998</v>
       </c>
       <c r="K54" s="3">
-        <v>0.116607</v>
+        <v>3.3079999999999998E-2</v>
       </c>
       <c r="L54" s="3">
-        <v>0.17925199999999999</v>
+        <v>-0.143066</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -2974,33 +2911,33 @@
         <v>16</v>
       </c>
       <c r="F55" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G55" s="3">
-        <v>-97.848961000000003</v>
+        <v>-80.810837000000006</v>
       </c>
       <c r="H55" s="3">
-        <v>2.7889999999999998E-3</v>
+        <v>-1.242E-3</v>
       </c>
       <c r="I55" s="3">
-        <v>-2.3895810000000002</v>
+        <v>-6.1989869999999998</v>
       </c>
       <c r="J55" s="3">
-        <v>2.8756550000000001</v>
+        <v>1.863669</v>
       </c>
       <c r="K55" s="3">
-        <v>0.142511</v>
+        <v>0.24332599999999999</v>
       </c>
       <c r="L55" s="3">
-        <v>0.20455200000000001</v>
+        <v>0.229349</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -3015,33 +2952,33 @@
         <v>16</v>
       </c>
       <c r="F56" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G56" s="3">
-        <v>-97.392089999999996</v>
+        <v>-94.174149</v>
       </c>
       <c r="H56" s="3">
-        <v>6.5700000000000003E-3</v>
+        <v>-4.9865E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>-2.5394809999999999</v>
+        <v>-8.0042259999999992</v>
       </c>
       <c r="J56" s="3">
-        <v>2.994135</v>
+        <v>2.1667619999999999</v>
       </c>
       <c r="K56" s="3">
-        <v>0.152334</v>
+        <v>-4.9978000000000002E-2</v>
       </c>
       <c r="L56" s="3">
-        <v>0.20184099999999999</v>
+        <v>-0.17447599999999999</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -3056,33 +2993,33 @@
         <v>16</v>
       </c>
       <c r="F57" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G57" s="3">
-        <v>-97.569182999999995</v>
+        <v>-93.968613000000005</v>
       </c>
       <c r="H57" s="3">
-        <v>2.2290000000000001E-3</v>
+        <v>-1.2571000000000001E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>-2.3914939999999998</v>
+        <v>-8.3750129999999992</v>
       </c>
       <c r="J57" s="3">
-        <v>2.872395</v>
+        <v>2.8430870000000001</v>
       </c>
       <c r="K57" s="3">
-        <v>0.14224000000000001</v>
+        <v>0.50111799999999995</v>
       </c>
       <c r="L57" s="3">
-        <v>0.20344799999999999</v>
+        <v>0.12532499999999999</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -3097,33 +3034,33 @@
         <v>16</v>
       </c>
       <c r="F58" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G58" s="3">
-        <v>-96.977920999999995</v>
+        <v>-39.482543999999997</v>
       </c>
       <c r="H58" s="3">
-        <v>5.372E-3</v>
+        <v>2.8895000000000001E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>-2.6114519999999999</v>
+        <v>-6.9476180000000003</v>
       </c>
       <c r="J58" s="3">
-        <v>3.0445470000000001</v>
+        <v>3.1647780000000001</v>
       </c>
       <c r="K58" s="3">
-        <v>0.11633599999999999</v>
+        <v>0.120284</v>
       </c>
       <c r="L58" s="3">
-        <v>0.178148</v>
+        <v>-8.0273999999999998E-2</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -3138,39 +3075,39 @@
         <v>16</v>
       </c>
       <c r="F59" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G59" s="3">
-        <v>-97.538634999999999</v>
+        <v>-80.859900999999994</v>
       </c>
       <c r="H59" s="3">
-        <v>3.8310000000000002E-3</v>
+        <v>-4.0355000000000002E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>-2.5453999999999999</v>
+        <v>-6.3446540000000002</v>
       </c>
       <c r="J59" s="3">
-        <v>2.9877910000000001</v>
+        <v>1.4428399999999999</v>
       </c>
       <c r="K59" s="3">
-        <v>6.5776000000000001E-2</v>
+        <v>-0.118807</v>
       </c>
       <c r="L59" s="3">
-        <v>0.14421400000000001</v>
+        <v>-0.21609999999999999</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
@@ -3179,33 +3116,33 @@
         <v>16</v>
       </c>
       <c r="F60" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G60" s="3">
-        <v>-60.937241</v>
+        <v>-93.858352999999994</v>
       </c>
       <c r="H60" s="3">
-        <v>3.0620000000000001E-3</v>
+        <v>-1.5089E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>-1.641132</v>
+        <v>-8.7306170000000005</v>
       </c>
       <c r="J60" s="3">
-        <v>1.9140280000000001</v>
+        <v>3.115218</v>
       </c>
       <c r="K60" s="3">
-        <v>7.8433000000000003E-2</v>
+        <v>0.43597999999999998</v>
       </c>
       <c r="L60" s="3">
-        <v>0.11670800000000001</v>
+        <v>0.180504</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -3220,36 +3157,36 @@
         <v>16</v>
       </c>
       <c r="F61" s="2">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G61" s="3">
-        <v>-60.869014999999997</v>
+        <v>-53.416198999999999</v>
       </c>
       <c r="H61" s="3">
-        <v>1.5499999999999999E-3</v>
+        <v>-8.6730000000000002E-3</v>
       </c>
       <c r="I61" s="3">
-        <v>-1.672952</v>
+        <v>-7.638439</v>
       </c>
       <c r="J61" s="3">
-        <v>1.9301200000000001</v>
+        <v>2.590897</v>
       </c>
       <c r="K61" s="3">
-        <v>1.4602E-2</v>
+        <v>0.53259000000000001</v>
       </c>
       <c r="L61" s="3">
-        <v>7.2230000000000003E-2</v>
+        <v>0.15296799999999999</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
@@ -3261,36 +3198,36 @@
         <v>16</v>
       </c>
       <c r="F62" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>-97.595459000000005</v>
+        <v>-36.710540999999999</v>
       </c>
       <c r="H62" s="3">
-        <v>3.6610000000000002E-3</v>
+        <v>2.8895000000000001E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>-2.4632869999999998</v>
+        <v>6.3444510000000003</v>
       </c>
       <c r="J62" s="3">
-        <v>2.9309609999999999</v>
+        <v>3.1647780000000001</v>
       </c>
       <c r="K62" s="3">
-        <v>0.123575</v>
+        <v>0.45743299999999998</v>
       </c>
       <c r="L62" s="3">
-        <v>0.18621699999999999</v>
+        <v>-8.0273999999999998E-2</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
@@ -3302,33 +3239,33 @@
         <v>16</v>
       </c>
       <c r="F63" s="2">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G63" s="3">
-        <v>-97.403107000000006</v>
+        <v>-91.374381999999997</v>
       </c>
       <c r="H63" s="3">
-        <v>5.4289999999999998E-3</v>
+        <v>-7.9979999999999999E-3</v>
       </c>
       <c r="I63" s="3">
-        <v>-2.4811380000000001</v>
+        <v>3.0564879999999999</v>
       </c>
       <c r="J63" s="3">
-        <v>2.9476520000000002</v>
+        <v>2.6573099999999998</v>
       </c>
       <c r="K63" s="3">
-        <v>0.161826</v>
+        <v>-0.92366199999999998</v>
       </c>
       <c r="L63" s="3">
-        <v>0.20968600000000001</v>
+        <v>0.33379399999999998</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
@@ -3343,33 +3280,33 @@
         <v>16</v>
       </c>
       <c r="F64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="3">
-        <v>-96.792961000000005</v>
+        <v>-50.046089000000002</v>
       </c>
       <c r="H64" s="3">
-        <v>2.7889999999999998E-3</v>
+        <v>2.214E-2</v>
       </c>
       <c r="I64" s="3">
-        <v>4.5119920000000002</v>
+        <v>7.7725150000000003</v>
       </c>
       <c r="J64" s="3">
-        <v>2.8756550000000001</v>
+        <v>3.9584190000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>-0.348414</v>
+        <v>0.25371100000000002</v>
       </c>
       <c r="L64" s="3">
-        <v>0.20455200000000001</v>
+        <v>2.4171000000000002E-2</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
@@ -3384,33 +3321,33 @@
         <v>16</v>
       </c>
       <c r="F65" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G65" s="3">
-        <v>-96.201697999999993</v>
+        <v>-78.077247999999997</v>
       </c>
       <c r="H65" s="3">
-        <v>5.9319999999999998E-3</v>
+        <v>-4.1731999999999998E-2</v>
       </c>
       <c r="I65" s="3">
-        <v>4.7051990000000004</v>
+        <v>-0.30830999999999997</v>
       </c>
       <c r="J65" s="3">
-        <v>3.0478070000000002</v>
+        <v>1.4079809999999999</v>
       </c>
       <c r="K65" s="3">
-        <v>-0.31359799999999999</v>
+        <v>0.83767800000000003</v>
       </c>
       <c r="L65" s="3">
-        <v>0.17925199999999999</v>
+        <v>-0.24751000000000001</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -3425,33 +3362,33 @@
         <v>16</v>
       </c>
       <c r="F66" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G66" s="3">
-        <v>-96.336089999999999</v>
+        <v>-90.587851999999998</v>
       </c>
       <c r="H66" s="3">
-        <v>6.5700000000000003E-3</v>
+        <v>1.6864000000000001E-2</v>
       </c>
       <c r="I66" s="3">
-        <v>4.6464429999999997</v>
+        <v>8.0715540000000008</v>
       </c>
       <c r="J66" s="3">
-        <v>2.994135</v>
+        <v>4.1757489999999997</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.33208500000000002</v>
+        <v>0.38720399999999999</v>
       </c>
       <c r="L66" s="3">
-        <v>0.20184099999999999</v>
+        <v>-3.4882000000000003E-2</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2">
         <v>2</v>
@@ -3466,33 +3403,33 @@
         <v>16</v>
       </c>
       <c r="F67" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3">
-        <v>-96.513183999999995</v>
+        <v>-90.598502999999994</v>
       </c>
       <c r="H67" s="3">
-        <v>2.2290000000000001E-3</v>
+        <v>1.8242000000000001E-2</v>
       </c>
       <c r="I67" s="3">
-        <v>4.5022529999999996</v>
+        <v>8.0951360000000001</v>
       </c>
       <c r="J67" s="3">
-        <v>2.872395</v>
+        <v>4.2106079999999997</v>
       </c>
       <c r="K67" s="3">
-        <v>-0.34603600000000001</v>
+        <v>0.338341</v>
       </c>
       <c r="L67" s="3">
-        <v>0.20344799999999999</v>
+        <v>-3.4719999999999998E-3</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
@@ -3507,33 +3444,33 @@
         <v>16</v>
       </c>
       <c r="F68" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G68" s="3">
-        <v>-95.921920999999998</v>
+        <v>-50.821972000000002</v>
       </c>
       <c r="H68" s="3">
-        <v>5.372E-3</v>
+        <v>-4.0990000000000002E-3</v>
       </c>
       <c r="I68" s="3">
-        <v>4.6954599999999997</v>
+        <v>2.733867</v>
       </c>
       <c r="J68" s="3">
-        <v>3.0445470000000001</v>
+        <v>2.4051200000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>-0.31121900000000002</v>
+        <v>-1.008292</v>
       </c>
       <c r="L68" s="3">
-        <v>0.178148</v>
+        <v>0.36143700000000001</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
@@ -3548,39 +3485,39 @@
         <v>16</v>
       </c>
       <c r="F69" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G69" s="3">
-        <v>-96.482635000000002</v>
+        <v>-77.262955000000005</v>
       </c>
       <c r="H69" s="3">
-        <v>3.8310000000000002E-3</v>
+        <v>2.4996999999999998E-2</v>
       </c>
       <c r="I69" s="3">
-        <v>4.625299</v>
+        <v>6.6670720000000001</v>
       </c>
       <c r="J69" s="3">
-        <v>2.9877910000000001</v>
+        <v>3.4169679999999998</v>
       </c>
       <c r="K69" s="3">
-        <v>-0.28033799999999998</v>
+        <v>0.54206299999999996</v>
       </c>
       <c r="L69" s="3">
-        <v>0.14421400000000001</v>
+        <v>-0.107917</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
       </c>
       <c r="C70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>15</v>
@@ -3589,33 +3526,33 @@
         <v>16</v>
       </c>
       <c r="F70" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G70" s="3">
-        <v>-59.881241000000003</v>
+        <v>-91.412796</v>
       </c>
       <c r="H70" s="3">
-        <v>3.0620000000000001E-3</v>
+        <v>-4.8487000000000002E-2</v>
       </c>
       <c r="I70" s="3">
-        <v>2.9525350000000001</v>
+        <v>1.1197539999999999</v>
       </c>
       <c r="J70" s="3">
-        <v>1.9140280000000001</v>
+        <v>2.2016209999999998</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.20166700000000001</v>
+        <v>0.63395599999999996</v>
       </c>
       <c r="L70" s="3">
-        <v>0.11670800000000001</v>
+        <v>-0.143066</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
@@ -3630,33 +3567,33 @@
         <v>16</v>
       </c>
       <c r="F71" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G71" s="3">
-        <v>-59.813015</v>
+        <v>-91.402145000000004</v>
       </c>
       <c r="H71" s="3">
-        <v>1.5499999999999999E-3</v>
+        <v>-4.9865E-2</v>
       </c>
       <c r="I71" s="3">
-        <v>2.959336</v>
+        <v>1.0961719999999999</v>
       </c>
       <c r="J71" s="3">
-        <v>1.9301200000000001</v>
+        <v>2.1667619999999999</v>
       </c>
       <c r="K71" s="3">
-        <v>-0.158749</v>
+        <v>0.68281999999999998</v>
       </c>
       <c r="L71" s="3">
-        <v>7.2230000000000003E-2</v>
+        <v>-0.17447599999999999</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -3671,33 +3608,33 @@
         <v>16</v>
       </c>
       <c r="F72" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72" s="3">
-        <v>-96.539458999999994</v>
+        <v>-78.087897999999996</v>
       </c>
       <c r="H72" s="3">
-        <v>3.6610000000000002E-3</v>
+        <v>-4.0355000000000002E-2</v>
       </c>
       <c r="I72" s="3">
-        <v>4.5710199999999999</v>
+        <v>-0.28472799999999998</v>
       </c>
       <c r="J72" s="3">
-        <v>2.9309609999999999</v>
+        <v>1.4428399999999999</v>
       </c>
       <c r="K72" s="3">
-        <v>-0.32334600000000002</v>
+        <v>0.78881500000000004</v>
       </c>
       <c r="L72" s="3">
-        <v>0.18621699999999999</v>
+        <v>-0.21609999999999999</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -3712,33 +3649,33 @@
         <v>16</v>
       </c>
       <c r="F73" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G73" s="3">
-        <v>-96.763779</v>
+        <v>-91.086348999999998</v>
       </c>
       <c r="H73" s="3">
-        <v>2.7920000000000002E-3</v>
+        <v>-1.5089E-2</v>
       </c>
       <c r="I73" s="3">
-        <v>4.5336040000000004</v>
+        <v>4.3532989999999998</v>
       </c>
       <c r="J73" s="3">
-        <v>2.892099</v>
+        <v>3.115218</v>
       </c>
       <c r="K73" s="3">
-        <v>-0.349441</v>
+        <v>-0.32213799999999998</v>
       </c>
       <c r="L73" s="3">
-        <v>0.20430499999999999</v>
+        <v>0.180504</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
@@ -3753,33 +3690,33 @@
         <v>16</v>
       </c>
       <c r="F74" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G74" s="3">
-        <v>-96.347106999999994</v>
+        <v>-37.524836999999998</v>
       </c>
       <c r="H74" s="3">
-        <v>5.4289999999999998E-3</v>
+        <v>-3.7834E-2</v>
       </c>
       <c r="I74" s="3">
-        <v>4.5932269999999997</v>
+        <v>-0.63092999999999999</v>
       </c>
       <c r="J74" s="3">
-        <v>2.9476520000000002</v>
+        <v>1.155791</v>
       </c>
       <c r="K74" s="3">
-        <v>-0.34142</v>
+        <v>0.75304899999999997</v>
       </c>
       <c r="L74" s="3">
-        <v>0.20968600000000001</v>
+        <v>-0.21986700000000001</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -3797,30 +3734,30 @@
         <v>2</v>
       </c>
       <c r="G75" s="3">
-        <v>-34.492367000000002</v>
+        <v>-35.275005</v>
       </c>
       <c r="H75" s="3">
-        <v>-1.4316000000000001E-2</v>
+        <v>1.578E-3</v>
       </c>
       <c r="I75" s="3">
-        <v>0.116059</v>
+        <v>-4.7686700000000002</v>
       </c>
       <c r="J75" s="3">
-        <v>-1.2810999999999999E-2</v>
+        <v>2.2245819999999998</v>
       </c>
       <c r="K75" s="3">
-        <v>3.9098000000000001E-2</v>
+        <v>-1.9778549999999999</v>
       </c>
       <c r="L75" s="3">
-        <v>1.1797E-2</v>
+        <v>-1.0430619999999999</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -3838,30 +3775,30 @@
         <v>4</v>
       </c>
       <c r="G76" s="3">
-        <v>-34.416161000000002</v>
+        <v>-24.156727</v>
       </c>
       <c r="H76" s="3">
-        <v>-1.4474000000000001E-2</v>
+        <v>-1.5100000000000001E-3</v>
       </c>
       <c r="I76" s="3">
-        <v>0.114594</v>
+        <v>-5.5859990000000002</v>
       </c>
       <c r="J76" s="3">
-        <v>-1.1922E-2</v>
+        <v>2.9029199999999999</v>
       </c>
       <c r="K76" s="3">
-        <v>4.2845000000000001E-2</v>
+        <v>-1.874914</v>
       </c>
       <c r="L76" s="3">
-        <v>1.3354E-2</v>
+        <v>-0.98508200000000001</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -3876,33 +3813,33 @@
         <v>16</v>
       </c>
       <c r="F77" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="3">
-        <v>-33.632092</v>
+        <v>-32.236649</v>
       </c>
       <c r="H77" s="3">
-        <v>-1.6907999999999999E-2</v>
+        <v>-1.4189999999999999E-3</v>
       </c>
       <c r="I77" s="3">
-        <v>0.26268599999999998</v>
+        <v>-1.446448</v>
       </c>
       <c r="J77" s="3">
-        <v>-7.5170000000000001E-2</v>
+        <v>3.1719999999999998E-2</v>
       </c>
       <c r="K77" s="3">
-        <v>5.9109000000000002E-2</v>
+        <v>-1.268184</v>
       </c>
       <c r="L77" s="3">
-        <v>2.1805999999999999E-2</v>
+        <v>-0.66773499999999997</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -3917,33 +3854,33 @@
         <v>16</v>
       </c>
       <c r="F78" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G78" s="3">
-        <v>-34.279471999999998</v>
+        <v>-34.700989</v>
       </c>
       <c r="H78" s="3">
-        <v>-1.9143E-2</v>
+        <v>2.6830000000000001E-3</v>
       </c>
       <c r="I78" s="3">
-        <v>0.23913899999999999</v>
+        <v>-4.0644349999999996</v>
       </c>
       <c r="J78" s="3">
-        <v>-5.6667000000000002E-2</v>
+        <v>1.5940510000000001</v>
       </c>
       <c r="K78" s="3">
-        <v>3.4039E-2</v>
+        <v>-1.9453450000000001</v>
       </c>
       <c r="L78" s="3">
-        <v>9.2099999999999994E-3</v>
+        <v>-1.061704</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -3958,33 +3895,33 @@
         <v>16</v>
       </c>
       <c r="F79" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="3">
-        <v>-19.015274000000002</v>
+        <v>-34.697158999999999</v>
       </c>
       <c r="H79" s="3">
-        <v>-1.933E-2</v>
+        <v>2.9450000000000001E-3</v>
       </c>
       <c r="I79" s="3">
-        <v>0.114273</v>
+        <v>-4.0773339999999996</v>
       </c>
       <c r="J79" s="3">
-        <v>1.838E-3</v>
+        <v>1.5976269999999999</v>
       </c>
       <c r="K79" s="3">
-        <v>2.4303999999999999E-2</v>
+        <v>-1.94539</v>
       </c>
       <c r="L79" s="3">
-        <v>3.3790000000000001E-3</v>
+        <v>-1.0618050000000001</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -3999,33 +3936,33 @@
         <v>16</v>
       </c>
       <c r="F80" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G80" s="3">
-        <v>-34.208500000000001</v>
+        <v>-37.135047999999998</v>
       </c>
       <c r="H80" s="3">
-        <v>-1.9345999999999999E-2</v>
+        <v>-2.7720000000000002E-3</v>
       </c>
       <c r="I80" s="3">
-        <v>0.237514</v>
+        <v>-4.0286780000000002</v>
       </c>
       <c r="J80" s="3">
-        <v>-5.5728E-2</v>
+        <v>1.5162389999999999</v>
       </c>
       <c r="K80" s="3">
-        <v>3.8127000000000001E-2</v>
+        <v>-1.8535649999999999</v>
       </c>
       <c r="L80" s="3">
-        <v>1.0845E-2</v>
+        <v>-0.93032300000000001</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -4040,33 +3977,33 @@
         <v>16</v>
       </c>
       <c r="F81" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G81" s="3">
-        <v>-33.555881999999997</v>
+        <v>-36.515822999999997</v>
       </c>
       <c r="H81" s="3">
-        <v>-1.7066999999999999E-2</v>
+        <v>-4.4640000000000001E-3</v>
       </c>
       <c r="I81" s="3">
-        <v>0.26122099999999998</v>
+        <v>-3.4816600000000002</v>
       </c>
       <c r="J81" s="3">
-        <v>-7.4282000000000001E-2</v>
+        <v>0.97698200000000002</v>
       </c>
       <c r="K81" s="3">
-        <v>6.2855999999999995E-2</v>
+        <v>-1.910088</v>
       </c>
       <c r="L81" s="3">
-        <v>2.3362999999999998E-2</v>
+        <v>-0.98794199999999999</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -4081,33 +4018,33 @@
         <v>16</v>
       </c>
       <c r="F82" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G82" s="3">
-        <v>-19.146726999999998</v>
+        <v>-23.578880000000002</v>
       </c>
       <c r="H82" s="3">
-        <v>-1.4618000000000001E-2</v>
+        <v>-1.4300000000000001E-4</v>
       </c>
       <c r="I82" s="3">
-        <v>-1.0111E-2</v>
+        <v>-4.8946649999999998</v>
       </c>
       <c r="J82" s="3">
-        <v>4.6531999999999997E-2</v>
+        <v>2.2759649999999998</v>
       </c>
       <c r="K82" s="3">
-        <v>3.2766999999999998E-2</v>
+        <v>-1.842449</v>
       </c>
       <c r="L82" s="3">
-        <v>7.4450000000000002E-3</v>
+        <v>-1.003825</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -4122,39 +4059,39 @@
         <v>16</v>
       </c>
       <c r="F83" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G83" s="3">
-        <v>-34.284706</v>
+        <v>-32.855877</v>
       </c>
       <c r="H83" s="3">
-        <v>-1.9186999999999999E-2</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="I83" s="3">
-        <v>0.238978</v>
+        <v>-1.993466</v>
       </c>
       <c r="J83" s="3">
-        <v>-5.6616E-2</v>
+        <v>0.57097699999999996</v>
       </c>
       <c r="K83" s="3">
-        <v>3.4381000000000002E-2</v>
+        <v>-1.2116610000000001</v>
       </c>
       <c r="L83" s="3">
-        <v>9.2879999999999994E-3</v>
+        <v>-0.61011499999999996</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>15</v>
@@ -4163,39 +4100,39 @@
         <v>16</v>
       </c>
       <c r="F84" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G84" s="3">
-        <v>-18.104429</v>
+        <v>-19.299707000000001</v>
       </c>
       <c r="H84" s="3">
-        <v>-1.7128999999999998E-2</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="I84" s="3">
-        <v>0.11579299999999999</v>
+        <v>-2.8594520000000001</v>
       </c>
       <c r="J84" s="3">
-        <v>-9.4929999999999997E-3</v>
+        <v>1.330703</v>
       </c>
       <c r="K84" s="3">
-        <v>5.6646000000000002E-2</v>
+        <v>-1.200545</v>
       </c>
       <c r="L84" s="3">
-        <v>1.7087999999999999E-2</v>
+        <v>-0.68361799999999995</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>15</v>
@@ -4207,36 +4144,36 @@
         <v>29</v>
       </c>
       <c r="G85" s="3">
-        <v>-34.042090999999999</v>
+        <v>-21.737597999999998</v>
       </c>
       <c r="H85" s="3">
-        <v>-1.328E-2</v>
+        <v>-2.8149999999999998E-3</v>
       </c>
       <c r="I85" s="3">
-        <v>0.116687</v>
+        <v>-2.8107959999999999</v>
       </c>
       <c r="J85" s="3">
-        <v>-1.8249999999999999E-2</v>
+        <v>1.249315</v>
       </c>
       <c r="K85" s="3">
-        <v>5.7355000000000003E-2</v>
+        <v>-1.1087199999999999</v>
       </c>
       <c r="L85" s="3">
-        <v>1.9879000000000001E-2</v>
+        <v>-0.55213599999999996</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>15</v>
@@ -4245,39 +4182,39 @@
         <v>16</v>
       </c>
       <c r="F86" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" s="3">
-        <v>-18.564997000000002</v>
+        <v>-35.931980000000003</v>
       </c>
       <c r="H86" s="3">
-        <v>-1.8294000000000001E-2</v>
+        <v>-2.1789999999999999E-3</v>
       </c>
       <c r="I86" s="3">
-        <v>0.1149</v>
+        <v>-4.077477</v>
       </c>
       <c r="J86" s="3">
-        <v>-3.601E-3</v>
+        <v>1.561714</v>
       </c>
       <c r="K86" s="3">
-        <v>4.2560000000000001E-2</v>
+        <v>-1.9246859999999999</v>
       </c>
       <c r="L86" s="3">
-        <v>1.1461000000000001E-2</v>
+        <v>-1.006427</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>15</v>
@@ -4286,36 +4223,36 @@
         <v>16</v>
       </c>
       <c r="F87" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" s="3">
-        <v>-18.099194000000001</v>
+        <v>-24.813701999999999</v>
       </c>
       <c r="H87" s="3">
-        <v>-1.7086E-2</v>
+        <v>-5.267E-3</v>
       </c>
       <c r="I87" s="3">
-        <v>0.115954</v>
+        <v>-4.8948070000000001</v>
       </c>
       <c r="J87" s="3">
-        <v>-9.5440000000000004E-3</v>
+        <v>2.2400530000000001</v>
       </c>
       <c r="K87" s="3">
-        <v>5.6304E-2</v>
+        <v>-1.8217449999999999</v>
       </c>
       <c r="L87" s="3">
-        <v>1.7010000000000001E-2</v>
+        <v>-0.94844700000000004</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -4327,36 +4264,36 @@
         <v>16</v>
       </c>
       <c r="F88" s="2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G88" s="3">
-        <v>-33.910637000000001</v>
+        <v>-22.308727000000001</v>
       </c>
       <c r="H88" s="3">
-        <v>-1.7992000000000001E-2</v>
+        <v>-1.5100000000000001E-3</v>
       </c>
       <c r="I88" s="3">
-        <v>0.24107100000000001</v>
+        <v>6.6062649999999996</v>
       </c>
       <c r="J88" s="3">
-        <v>-6.2944E-2</v>
+        <v>2.9029199999999999</v>
       </c>
       <c r="K88" s="3">
-        <v>4.8890999999999997E-2</v>
+        <v>2.2624300000000002</v>
       </c>
       <c r="L88" s="3">
-        <v>1.5813000000000001E-2</v>
+        <v>-0.98508200000000001</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
@@ -4368,36 +4305,36 @@
         <v>16</v>
       </c>
       <c r="F89" s="2">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G89" s="3">
-        <v>-33.626857999999999</v>
+        <v>-30.388650999999999</v>
       </c>
       <c r="H89" s="3">
-        <v>-1.6865000000000002E-2</v>
+        <v>-1.4189999999999999E-3</v>
       </c>
       <c r="I89" s="3">
-        <v>0.26284600000000002</v>
+        <v>-1.3132239999999999</v>
       </c>
       <c r="J89" s="3">
-        <v>-7.5220999999999996E-2</v>
+        <v>3.1719999999999998E-2</v>
       </c>
       <c r="K89" s="3">
-        <v>5.8767E-2</v>
+        <v>1.5363020000000001</v>
       </c>
       <c r="L89" s="3">
-        <v>2.1728000000000001E-2</v>
+        <v>-0.66773499999999997</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -4409,36 +4346,36 @@
         <v>16</v>
       </c>
       <c r="F90" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3">
-        <v>-33.581524000000002</v>
+        <v>-32.852989000000001</v>
       </c>
       <c r="H90" s="3">
-        <v>-1.2115000000000001E-2</v>
+        <v>2.6830000000000001E-3</v>
       </c>
       <c r="I90" s="3">
-        <v>0.11758</v>
+        <v>2.6305779999999999</v>
       </c>
       <c r="J90" s="3">
-        <v>-2.4140999999999999E-2</v>
+        <v>1.5940510000000001</v>
       </c>
       <c r="K90" s="3">
-        <v>7.1441000000000004E-2</v>
+        <v>2.513811</v>
       </c>
       <c r="L90" s="3">
-        <v>2.5506000000000001E-2</v>
+        <v>-1.061704</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -4450,33 +4387,33 @@
         <v>16</v>
       </c>
       <c r="F91" s="2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G91" s="3">
-        <v>-33.763542000000001</v>
+        <v>-32.849159</v>
       </c>
       <c r="H91" s="3">
-        <v>-1.2196E-2</v>
+        <v>2.9450000000000001E-3</v>
       </c>
       <c r="I91" s="3">
-        <v>0.13830200000000001</v>
+        <v>2.6326969999999998</v>
       </c>
       <c r="J91" s="3">
-        <v>-3.0476E-2</v>
+        <v>1.5976269999999999</v>
       </c>
       <c r="K91" s="3">
-        <v>6.7572999999999994E-2</v>
+        <v>2.5141900000000001</v>
       </c>
       <c r="L91" s="3">
-        <v>2.5871999999999999E-2</v>
+        <v>-1.0618050000000001</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B92" s="2">
         <v>2</v>
@@ -4491,33 +4428,33 @@
         <v>16</v>
       </c>
       <c r="F92" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G92" s="3">
-        <v>-30.816089999999999</v>
+        <v>-35.287047999999999</v>
       </c>
       <c r="H92" s="3">
-        <v>-1.6907999999999999E-2</v>
+        <v>-2.7720000000000002E-3</v>
       </c>
       <c r="I92" s="3">
-        <v>-0.21840499999999999</v>
+        <v>2.3395239999999999</v>
       </c>
       <c r="J92" s="3">
-        <v>-7.5170000000000001E-2</v>
+        <v>1.5162389999999999</v>
       </c>
       <c r="K92" s="3">
-        <v>-8.0448000000000006E-2</v>
+        <v>2.0537909999999999</v>
       </c>
       <c r="L92" s="3">
-        <v>2.1805999999999999E-2</v>
+        <v>-0.93032300000000001</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
@@ -4532,25 +4469,25 @@
         <v>16</v>
       </c>
       <c r="F93" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G93" s="3">
-        <v>-31.468707999999999</v>
+        <v>-21.730881</v>
       </c>
       <c r="H93" s="3">
-        <v>-1.9186999999999999E-2</v>
+        <v>-1.4300000000000001E-4</v>
       </c>
       <c r="I93" s="3">
-        <v>-0.123367</v>
+        <v>4.6643879999999998</v>
       </c>
       <c r="J93" s="3">
-        <v>-5.6616E-2</v>
+        <v>2.2759649999999998</v>
       </c>
       <c r="K93" s="3">
-        <v>-2.5062000000000001E-2</v>
+        <v>2.3736160000000002</v>
       </c>
       <c r="L93" s="3">
-        <v>9.2879999999999994E-3</v>
+        <v>-1.003825</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>39</v>
@@ -4558,7 +4495,7 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
@@ -4573,33 +4510,33 @@
         <v>16</v>
       </c>
       <c r="F94" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G94" s="3">
-        <v>-31.676369000000001</v>
+        <v>-31.007877000000001</v>
       </c>
       <c r="H94" s="3">
-        <v>-1.4316000000000001E-2</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="I94" s="3">
-        <v>3.4068000000000001E-2</v>
+        <v>0.404638</v>
       </c>
       <c r="J94" s="3">
-        <v>-1.2810999999999999E-2</v>
+        <v>0.57097699999999996</v>
       </c>
       <c r="K94" s="3">
-        <v>-3.6400000000000002E-2</v>
+        <v>1.3508230000000001</v>
       </c>
       <c r="L94" s="3">
-        <v>1.1797E-2</v>
+        <v>-0.61011499999999996</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B95" s="2">
         <v>2</v>
@@ -4614,39 +4551,39 @@
         <v>16</v>
       </c>
       <c r="F95" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G95" s="3">
-        <v>-31.600159000000001</v>
+        <v>-17.451708</v>
       </c>
       <c r="H95" s="3">
-        <v>-1.4474000000000001E-2</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="I95" s="3">
-        <v>3.8292E-2</v>
+        <v>2.7295020000000001</v>
       </c>
       <c r="J95" s="3">
-        <v>-1.1922E-2</v>
+        <v>1.330703</v>
       </c>
       <c r="K95" s="3">
-        <v>-4.2619999999999998E-2</v>
+        <v>1.6706490000000001</v>
       </c>
       <c r="L95" s="3">
-        <v>1.3354E-2</v>
+        <v>-0.68361799999999995</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B96" s="2">
         <v>2</v>
       </c>
       <c r="C96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>15</v>
@@ -4655,33 +4592,33 @@
         <v>16</v>
       </c>
       <c r="F96" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G96" s="3">
-        <v>-16.199273999999999</v>
+        <v>-19.889599</v>
       </c>
       <c r="H96" s="3">
-        <v>-1.933E-2</v>
+        <v>-2.8149999999999998E-3</v>
       </c>
       <c r="I96" s="3">
-        <v>0.12603400000000001</v>
+        <v>2.4363290000000002</v>
       </c>
       <c r="J96" s="3">
-        <v>1.838E-3</v>
+        <v>1.249315</v>
       </c>
       <c r="K96" s="3">
-        <v>2.6779999999999998E-3</v>
+        <v>1.2102489999999999</v>
       </c>
       <c r="L96" s="3">
-        <v>3.3790000000000001E-3</v>
+        <v>-0.55213599999999996</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -4696,39 +4633,39 @@
         <v>16</v>
       </c>
       <c r="F97" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G97" s="3">
-        <v>-31.392498</v>
+        <v>-34.083981000000001</v>
       </c>
       <c r="H97" s="3">
-        <v>-1.9345999999999999E-2</v>
+        <v>-2.1789999999999999E-3</v>
       </c>
       <c r="I97" s="3">
-        <v>-0.119143</v>
+        <v>2.4817230000000001</v>
       </c>
       <c r="J97" s="3">
-        <v>-5.5728E-2</v>
+        <v>1.561714</v>
       </c>
       <c r="K97" s="3">
-        <v>-3.1281000000000003E-2</v>
+        <v>2.3023090000000002</v>
       </c>
       <c r="L97" s="3">
-        <v>1.0845E-2</v>
+        <v>-1.006427</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B98" s="2">
         <v>2</v>
       </c>
       <c r="C98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -4737,36 +4674,36 @@
         <v>16</v>
       </c>
       <c r="F98" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G98" s="3">
-        <v>-30.739882999999999</v>
+        <v>-22.965702</v>
       </c>
       <c r="H98" s="3">
-        <v>-1.7066999999999999E-2</v>
+        <v>-5.267E-3</v>
       </c>
       <c r="I98" s="3">
-        <v>-0.21418100000000001</v>
+        <v>4.513414</v>
       </c>
       <c r="J98" s="3">
-        <v>-7.4282000000000001E-2</v>
+        <v>2.2400530000000001</v>
       </c>
       <c r="K98" s="3">
-        <v>-8.6666999999999994E-2</v>
+        <v>2.1617350000000002</v>
       </c>
       <c r="L98" s="3">
-        <v>2.3362999999999998E-2</v>
+        <v>-0.94844700000000004</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
@@ -4778,36 +4715,36 @@
         <v>16</v>
       </c>
       <c r="F99" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3">
-        <v>-16.330727</v>
+        <v>-52.826484999999998</v>
       </c>
       <c r="H99" s="3">
-        <v>-1.4618000000000001E-2</v>
+        <v>2.836E-3</v>
       </c>
       <c r="I99" s="3">
-        <v>0.28769299999999998</v>
+        <v>-3.884668</v>
       </c>
       <c r="J99" s="3">
-        <v>4.6531999999999997E-2</v>
+        <v>2.0912540000000002</v>
       </c>
       <c r="K99" s="3">
-        <v>-1.4880000000000001E-2</v>
+        <v>-1.540759</v>
       </c>
       <c r="L99" s="3">
-        <v>7.4450000000000002E-3</v>
+        <v>-0.73348100000000005</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -4819,39 +4756,39 @@
         <v>16</v>
       </c>
       <c r="F100" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-30.947544000000001</v>
+        <v>-42.010489999999997</v>
       </c>
       <c r="H100" s="3">
-        <v>-1.2196E-2</v>
+        <v>2.2309999999999999E-3</v>
       </c>
       <c r="I100" s="3">
-        <v>-5.6745999999999998E-2</v>
+        <v>-3.7047669999999999</v>
       </c>
       <c r="J100" s="3">
-        <v>-3.0476E-2</v>
+        <v>1.9881249999999999</v>
       </c>
       <c r="K100" s="3">
-        <v>-9.8005999999999996E-2</v>
+        <v>-1.4557359999999999</v>
       </c>
       <c r="L100" s="3">
-        <v>2.5871999999999999E-2</v>
+        <v>-0.69290499999999999</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>15</v>
@@ -4860,36 +4797,36 @@
         <v>16</v>
       </c>
       <c r="F101" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3">
-        <v>-15.288429000000001</v>
+        <v>-51.663001999999999</v>
       </c>
       <c r="H101" s="3">
-        <v>-1.7128999999999998E-2</v>
+        <v>3.3440000000000002E-3</v>
       </c>
       <c r="I101" s="3">
-        <v>5.5039999999999999E-2</v>
+        <v>-3.122026</v>
       </c>
       <c r="J101" s="3">
-        <v>-9.4929999999999997E-3</v>
+        <v>1.691873</v>
       </c>
       <c r="K101" s="3">
-        <v>-5.2715999999999999E-2</v>
+        <v>-1.564451</v>
       </c>
       <c r="L101" s="3">
-        <v>1.7087999999999999E-2</v>
+        <v>-0.74005200000000004</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -4901,39 +4838,39 @@
         <v>16</v>
       </c>
       <c r="F102" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>-31.226089000000002</v>
+        <v>-53.470917</v>
       </c>
       <c r="H102" s="3">
-        <v>-1.328E-2</v>
+        <v>6.5700000000000003E-4</v>
       </c>
       <c r="I102" s="3">
-        <v>-1.11E-4</v>
+        <v>-3.557401</v>
       </c>
       <c r="J102" s="3">
-        <v>-1.8249999999999999E-2</v>
+        <v>1.9112169999999999</v>
       </c>
       <c r="K102" s="3">
-        <v>-6.9870000000000002E-2</v>
+        <v>-1.7431920000000001</v>
       </c>
       <c r="L102" s="3">
-        <v>1.9879000000000001E-2</v>
+        <v>-0.83159300000000003</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>15</v>
@@ -4942,36 +4879,36 @@
         <v>16</v>
       </c>
       <c r="F103" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G103" s="3">
-        <v>-15.748996999999999</v>
+        <v>-53.453957000000003</v>
       </c>
       <c r="H103" s="3">
-        <v>-1.8294000000000001E-2</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="I103" s="3">
-        <v>9.1854000000000005E-2</v>
+        <v>-3.473522</v>
       </c>
       <c r="J103" s="3">
-        <v>-3.601E-3</v>
+        <v>1.882549</v>
       </c>
       <c r="K103" s="3">
-        <v>-3.0790999999999999E-2</v>
+        <v>-1.7442150000000001</v>
       </c>
       <c r="L103" s="3">
-        <v>1.1461000000000001E-2</v>
+        <v>-0.83157499999999995</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -4983,36 +4920,36 @@
         <v>16</v>
       </c>
       <c r="F104" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G104" s="3">
-        <v>-15.283194999999999</v>
+        <v>-41.434936999999998</v>
       </c>
       <c r="H104" s="3">
-        <v>-1.7086E-2</v>
+        <v>3.238E-3</v>
       </c>
       <c r="I104" s="3">
-        <v>5.4873999999999999E-2</v>
+        <v>-1.9210640000000001</v>
       </c>
       <c r="J104" s="3">
-        <v>-9.5440000000000004E-3</v>
+        <v>1.0150220000000001</v>
       </c>
       <c r="K104" s="3">
-        <v>-5.2558000000000001E-2</v>
+        <v>-1.033393</v>
       </c>
       <c r="L104" s="3">
-        <v>1.7010000000000001E-2</v>
+        <v>-0.48249199999999998</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2">
         <v>2</v>
@@ -5024,36 +4961,36 @@
         <v>16</v>
       </c>
       <c r="F105" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G105" s="3">
-        <v>-31.094639000000001</v>
+        <v>-51.006599000000001</v>
       </c>
       <c r="H105" s="3">
-        <v>-1.7992000000000001E-2</v>
+        <v>-2.3410000000000002E-3</v>
       </c>
       <c r="I105" s="3">
-        <v>-0.161771</v>
+        <v>-3.6956799999999999</v>
       </c>
       <c r="J105" s="3">
-        <v>-6.2944E-2</v>
+        <v>1.9728159999999999</v>
       </c>
       <c r="K105" s="3">
-        <v>-5.2311999999999997E-2</v>
+        <v>-1.40123</v>
       </c>
       <c r="L105" s="3">
-        <v>1.5813000000000001E-2</v>
+        <v>-0.65606299999999995</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -5065,39 +5002,39 @@
         <v>16</v>
       </c>
       <c r="F106" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G106" s="3">
-        <v>-30.810853999999999</v>
+        <v>-29.945585000000001</v>
       </c>
       <c r="H106" s="3">
-        <v>-1.6865000000000002E-2</v>
+        <v>-1.39E-3</v>
       </c>
       <c r="I106" s="3">
-        <v>-0.21856999999999999</v>
+        <v>-2.2309380000000001</v>
       </c>
       <c r="J106" s="3">
-        <v>-7.5220999999999996E-2</v>
+        <v>1.164169</v>
       </c>
       <c r="K106" s="3">
-        <v>-8.029E-2</v>
+        <v>-0.78617199999999998</v>
       </c>
       <c r="L106" s="3">
-        <v>2.1728000000000001E-2</v>
+        <v>-0.35791000000000001</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
-        <v>464</v>
+        <v>323</v>
       </c>
       <c r="B107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>15</v>
@@ -5106,39 +5043,39 @@
         <v>16</v>
       </c>
       <c r="F107" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G107" s="3">
-        <v>-16.194037999999999</v>
+        <v>-30.635898999999998</v>
       </c>
       <c r="H107" s="3">
-        <v>-1.9286999999999999E-2</v>
+        <v>9.7199999999999999E-4</v>
       </c>
       <c r="I107" s="3">
-        <v>0.12586900000000001</v>
+        <v>-1.8250420000000001</v>
       </c>
       <c r="J107" s="3">
-        <v>1.787E-3</v>
+        <v>0.94055999999999995</v>
       </c>
       <c r="K107" s="3">
-        <v>2.836E-3</v>
+        <v>-0.94734799999999997</v>
       </c>
       <c r="L107" s="3">
-        <v>3.3010000000000001E-3</v>
+        <v>-0.44193399999999999</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>15</v>
@@ -5147,39 +5084,39 @@
         <v>16</v>
       </c>
       <c r="F108" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G108" s="3">
-        <v>-56.038673000000003</v>
+        <v>-31.782429</v>
       </c>
       <c r="H108" s="3">
-        <v>1.1231E-2</v>
+        <v>2.1259999999999999E-3</v>
       </c>
       <c r="I108" s="3">
-        <v>0</v>
+        <v>-2.5038040000000001</v>
       </c>
       <c r="J108" s="3">
-        <v>0.17558000000000001</v>
+        <v>1.3112740000000001</v>
       </c>
       <c r="K108" s="3">
-        <v>0</v>
+        <v>-0.92467900000000003</v>
       </c>
       <c r="L108" s="3">
-        <v>-0.23282800000000001</v>
+        <v>-0.43534600000000001</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>15</v>
@@ -5188,39 +5125,39 @@
         <v>16</v>
       </c>
       <c r="F109" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G109" s="3">
-        <v>-55.946102000000003</v>
+        <v>-29.962540000000001</v>
       </c>
       <c r="H109" s="3">
-        <v>1.0083E-2</v>
+        <v>-3.052E-3</v>
       </c>
       <c r="I109" s="3">
-        <v>0</v>
+        <v>-2.3148170000000001</v>
       </c>
       <c r="J109" s="3">
-        <v>0.21557200000000001</v>
+        <v>1.192836</v>
       </c>
       <c r="K109" s="3">
-        <v>0</v>
+        <v>-0.78514899999999999</v>
       </c>
       <c r="L109" s="3">
-        <v>-0.30351299999999998</v>
+        <v>-0.35792800000000002</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>15</v>
@@ -5229,36 +5166,36 @@
         <v>16</v>
       </c>
       <c r="F110" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G110" s="3">
-        <v>-13.501132</v>
+        <v>-32.426856999999998</v>
       </c>
       <c r="H110" s="3">
-        <v>1.1697000000000001E-2</v>
+        <v>-5.3999999999999998E-5</v>
       </c>
       <c r="I110" s="3">
-        <v>0</v>
+        <v>-2.1765379999999999</v>
       </c>
       <c r="J110" s="3">
-        <v>-7.3788999999999993E-2</v>
+        <v>1.131237</v>
       </c>
       <c r="K110" s="3">
-        <v>0</v>
+        <v>-1.1271119999999999</v>
       </c>
       <c r="L110" s="3">
-        <v>-0.30404900000000001</v>
+        <v>-0.53345799999999999</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B111" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -5270,36 +5207,36 @@
         <v>16</v>
       </c>
       <c r="F111" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G111" s="3">
-        <v>-55.971916</v>
+        <v>-40.162491000000003</v>
       </c>
       <c r="H111" s="3">
-        <v>1.0652E-2</v>
+        <v>2.2309999999999999E-3</v>
       </c>
       <c r="I111" s="3">
-        <v>0</v>
+        <v>4.6453600000000002</v>
       </c>
       <c r="J111" s="3">
-        <v>0.224777</v>
+        <v>1.9881249999999999</v>
       </c>
       <c r="K111" s="3">
-        <v>0</v>
+        <v>1.454467</v>
       </c>
       <c r="L111" s="3">
-        <v>-0.27552700000000002</v>
+        <v>-0.69290499999999999</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -5311,36 +5248,36 @@
         <v>16</v>
       </c>
       <c r="F112" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G112" s="3">
-        <v>-13.566001</v>
+        <v>-39.586936999999999</v>
       </c>
       <c r="H112" s="3">
-        <v>1.2135999999999999E-2</v>
+        <v>3.238E-3</v>
       </c>
       <c r="I112" s="3">
-        <v>0</v>
+        <v>2.3420269999999999</v>
       </c>
       <c r="J112" s="3">
-        <v>-0.124629</v>
+        <v>1.0150220000000001</v>
       </c>
       <c r="K112" s="3">
-        <v>0</v>
+        <v>0.99307500000000004</v>
       </c>
       <c r="L112" s="3">
-        <v>-0.26110800000000001</v>
+        <v>-0.48249199999999998</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B113" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -5352,39 +5289,39 @@
         <v>16</v>
       </c>
       <c r="F113" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G113" s="3">
-        <v>-56.036785000000002</v>
+        <v>-50.978484999999999</v>
       </c>
       <c r="H113" s="3">
-        <v>1.1091E-2</v>
+        <v>2.836E-3</v>
       </c>
       <c r="I113" s="3">
-        <v>0</v>
+        <v>4.8985989999999999</v>
       </c>
       <c r="J113" s="3">
-        <v>0.17393700000000001</v>
+        <v>2.0912540000000002</v>
       </c>
       <c r="K113" s="3">
-        <v>0</v>
+        <v>1.5398620000000001</v>
       </c>
       <c r="L113" s="3">
-        <v>-0.23258499999999999</v>
+        <v>-0.73348100000000005</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>15</v>
@@ -5393,36 +5330,36 @@
         <v>16</v>
       </c>
       <c r="F114" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G114" s="3">
-        <v>-13.533911</v>
+        <v>-51.622917000000001</v>
       </c>
       <c r="H114" s="3">
-        <v>1.2106E-2</v>
+        <v>6.5700000000000003E-4</v>
       </c>
       <c r="I114" s="3">
-        <v>0</v>
+        <v>4.4697079999999998</v>
       </c>
       <c r="J114" s="3">
-        <v>-9.7770999999999997E-2</v>
+        <v>1.9112169999999999</v>
       </c>
       <c r="K114" s="3">
-        <v>0</v>
+        <v>1.7494970000000001</v>
       </c>
       <c r="L114" s="3">
-        <v>-0.27673500000000001</v>
+        <v>-0.83159300000000003</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" s="2">
         <v>2</v>
@@ -5434,33 +5371,33 @@
         <v>16</v>
       </c>
       <c r="F115" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G115" s="3">
-        <v>-56.004696000000003</v>
+        <v>-51.605956999999997</v>
       </c>
       <c r="H115" s="3">
-        <v>1.1061E-2</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="I115" s="3">
-        <v>0</v>
+        <v>4.4331849999999999</v>
       </c>
       <c r="J115" s="3">
-        <v>0.200795</v>
+        <v>1.882549</v>
       </c>
       <c r="K115" s="3">
-        <v>0</v>
+        <v>1.7484010000000001</v>
       </c>
       <c r="L115" s="3">
-        <v>-0.24821199999999999</v>
+        <v>-0.83157499999999995</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B116" s="2">
         <v>2</v>
@@ -5475,33 +5412,33 @@
         <v>16</v>
       </c>
       <c r="F116" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G116" s="3">
-        <v>-56.982784000000002</v>
+        <v>-49.1586</v>
       </c>
       <c r="H116" s="3">
-        <v>1.1091E-2</v>
+        <v>-2.3410000000000002E-3</v>
       </c>
       <c r="I116" s="3">
-        <v>0.37396499999999999</v>
+        <v>4.5901459999999998</v>
       </c>
       <c r="J116" s="3">
-        <v>0.17393700000000001</v>
+        <v>1.9728159999999999</v>
       </c>
       <c r="K116" s="3">
-        <v>0.50005699999999997</v>
+        <v>1.3542339999999999</v>
       </c>
       <c r="L116" s="3">
-        <v>-0.23258499999999999</v>
+        <v>-0.65606299999999995</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B117" s="2">
         <v>2</v>
@@ -5516,39 +5453,39 @@
         <v>16</v>
       </c>
       <c r="F117" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G117" s="3">
-        <v>-56.95834</v>
+        <v>-28.097586</v>
       </c>
       <c r="H117" s="3">
-        <v>1.0695E-2</v>
+        <v>-1.39E-3</v>
       </c>
       <c r="I117" s="3">
-        <v>0.358406</v>
+        <v>2.6585709999999998</v>
       </c>
       <c r="J117" s="3">
-        <v>0.16670099999999999</v>
+        <v>1.164169</v>
       </c>
       <c r="K117" s="3">
-        <v>0.56094699999999997</v>
+        <v>0.71705099999999999</v>
       </c>
       <c r="L117" s="3">
-        <v>-0.260905</v>
+        <v>-0.35791000000000001</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B118" s="2">
         <v>2</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>15</v>
@@ -5557,39 +5494,39 @@
         <v>16</v>
       </c>
       <c r="F118" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G118" s="3">
-        <v>-56.893470999999998</v>
+        <v>-28.787898999999999</v>
       </c>
       <c r="H118" s="3">
-        <v>1.0255999999999999E-2</v>
+        <v>9.7199999999999999E-4</v>
       </c>
       <c r="I118" s="3">
-        <v>0.46771200000000002</v>
+        <v>2.125311</v>
       </c>
       <c r="J118" s="3">
-        <v>0.21754000000000001</v>
+        <v>0.94055999999999995</v>
       </c>
       <c r="K118" s="3">
-        <v>0.65327100000000005</v>
+        <v>0.90877600000000003</v>
       </c>
       <c r="L118" s="3">
-        <v>-0.30384699999999998</v>
+        <v>-0.44193399999999999</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B119" s="2">
         <v>2</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>15</v>
@@ -5598,39 +5535,39 @@
         <v>16</v>
       </c>
       <c r="F119" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G119" s="3">
-        <v>-56.909953999999999</v>
+        <v>-29.934429000000002</v>
       </c>
       <c r="H119" s="3">
-        <v>1.0704999999999999E-2</v>
+        <v>2.1259999999999999E-3</v>
       </c>
       <c r="I119" s="3">
-        <v>0.44757200000000003</v>
+        <v>3.0035479999999999</v>
       </c>
       <c r="J119" s="3">
-        <v>0.208173</v>
+        <v>1.3112740000000001</v>
       </c>
       <c r="K119" s="3">
-        <v>0.47438799999999998</v>
+        <v>0.903775</v>
       </c>
       <c r="L119" s="3">
-        <v>-0.22064500000000001</v>
+        <v>-0.43534600000000001</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B120" s="2">
         <v>2</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>15</v>
@@ -5639,39 +5576,39 @@
         <v>16</v>
       </c>
       <c r="F120" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G120" s="3">
-        <v>-56.892100999999997</v>
+        <v>-28.114540000000002</v>
       </c>
       <c r="H120" s="3">
-        <v>1.0083E-2</v>
+        <v>-3.052E-3</v>
       </c>
       <c r="I120" s="3">
-        <v>0.46347899999999997</v>
+        <v>2.6950949999999998</v>
       </c>
       <c r="J120" s="3">
-        <v>0.21557200000000001</v>
+        <v>1.192836</v>
       </c>
       <c r="K120" s="3">
-        <v>0.65255300000000005</v>
+        <v>0.71814699999999998</v>
       </c>
       <c r="L120" s="3">
-        <v>-0.30351299999999998</v>
+        <v>-0.35792800000000002</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
-        <v>545</v>
+        <v>323</v>
       </c>
       <c r="B121" s="2">
         <v>2</v>
       </c>
       <c r="C121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>15</v>
@@ -5680,36 +5617,36 @@
         <v>16</v>
       </c>
       <c r="F121" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G121" s="3">
-        <v>-14.447131000000001</v>
+        <v>-30.578856999999999</v>
       </c>
       <c r="H121" s="3">
-        <v>1.1697000000000001E-2</v>
+        <v>-5.3999999999999998E-5</v>
       </c>
       <c r="I121" s="3">
-        <v>-0.15864700000000001</v>
+        <v>2.5746570000000002</v>
       </c>
       <c r="J121" s="3">
-        <v>-7.3788999999999993E-2</v>
+        <v>1.131237</v>
       </c>
       <c r="K121" s="3">
-        <v>0.65370600000000001</v>
+        <v>1.11341</v>
       </c>
       <c r="L121" s="3">
-        <v>-0.30404900000000001</v>
+        <v>-0.53345799999999999</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -5721,36 +5658,36 @@
         <v>16</v>
       </c>
       <c r="F122" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G122" s="3">
-        <v>-56.917915000000001</v>
+        <v>-93.875945999999999</v>
       </c>
       <c r="H122" s="3">
-        <v>1.0652E-2</v>
+        <v>-2.2699999999999999E-4</v>
       </c>
       <c r="I122" s="3">
-        <v>0.48326999999999998</v>
+        <v>-0.40229700000000002</v>
       </c>
       <c r="J122" s="3">
-        <v>0.224777</v>
+        <v>0.38363700000000001</v>
       </c>
       <c r="K122" s="3">
-        <v>0.59238199999999996</v>
+        <v>-0.66862699999999997</v>
       </c>
       <c r="L122" s="3">
-        <v>-0.27552700000000002</v>
+        <v>-0.45419599999999999</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="2">
         <v>2</v>
@@ -5762,36 +5699,36 @@
         <v>16</v>
       </c>
       <c r="F123" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G123" s="3">
-        <v>-14.512</v>
+        <v>-93.016861000000006</v>
       </c>
       <c r="H123" s="3">
-        <v>1.2135999999999999E-2</v>
+        <v>-1.16E-4</v>
       </c>
       <c r="I123" s="3">
-        <v>-0.26795200000000002</v>
+        <v>-0.38501099999999999</v>
       </c>
       <c r="J123" s="3">
-        <v>-0.124629</v>
+        <v>0.38942700000000002</v>
       </c>
       <c r="K123" s="3">
-        <v>0.56138100000000002</v>
+        <v>-0.49298999999999998</v>
       </c>
       <c r="L123" s="3">
-        <v>-0.26110800000000001</v>
+        <v>-0.31820900000000002</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -5803,36 +5740,36 @@
         <v>16</v>
       </c>
       <c r="F124" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G124" s="3">
-        <v>-56.984673000000001</v>
+        <v>-93.651970000000006</v>
       </c>
       <c r="H124" s="3">
-        <v>1.1231E-2</v>
+        <v>-3.173E-3</v>
       </c>
       <c r="I124" s="3">
-        <v>0.377496</v>
+        <v>-0.15053</v>
       </c>
       <c r="J124" s="3">
-        <v>0.17558000000000001</v>
+        <v>0.16168399999999999</v>
       </c>
       <c r="K124" s="3">
-        <v>0.50058000000000002</v>
+        <v>-0.44585000000000002</v>
       </c>
       <c r="L124" s="3">
-        <v>-0.23282800000000001</v>
+        <v>-0.27138499999999999</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
@@ -5844,39 +5781,39 @@
         <v>16</v>
       </c>
       <c r="F125" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G125" s="3">
-        <v>-56.908585000000002</v>
+        <v>-94.511047000000005</v>
       </c>
       <c r="H125" s="3">
-        <v>1.0532E-2</v>
+        <v>-3.2850000000000002E-3</v>
       </c>
       <c r="I125" s="3">
-        <v>0.44334000000000001</v>
+        <v>-0.16781699999999999</v>
       </c>
       <c r="J125" s="3">
-        <v>0.206205</v>
+        <v>0.155894</v>
       </c>
       <c r="K125" s="3">
-        <v>0.47366900000000001</v>
+        <v>-0.62148700000000001</v>
       </c>
       <c r="L125" s="3">
-        <v>-0.22031100000000001</v>
+        <v>-0.40737299999999999</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>15</v>
@@ -5885,36 +5822,36 @@
         <v>16</v>
       </c>
       <c r="F126" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G126" s="3">
-        <v>-14.47991</v>
+        <v>-61.332264000000002</v>
       </c>
       <c r="H126" s="3">
-        <v>1.2106E-2</v>
+        <v>-4.06E-4</v>
       </c>
       <c r="I126" s="3">
-        <v>-0.210207</v>
+        <v>-0.38984400000000002</v>
       </c>
       <c r="J126" s="3">
-        <v>-9.7770999999999997E-2</v>
+        <v>0.386216</v>
       </c>
       <c r="K126" s="3">
-        <v>0.59497999999999995</v>
+        <v>-0.62218300000000004</v>
       </c>
       <c r="L126" s="3">
-        <v>-0.27673500000000001</v>
+        <v>-0.45578999999999997</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="B127" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" s="2">
         <v>2</v>
@@ -5926,28 +5863,1545 @@
         <v>16</v>
       </c>
       <c r="F127" s="2">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3">
+        <v>-59.995316000000003</v>
+      </c>
+      <c r="H127" s="3">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="I127" s="3">
+        <v>-0.414329</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0.41315800000000003</v>
+      </c>
+      <c r="K127" s="3">
+        <v>-0.58776399999999995</v>
+      </c>
+      <c r="L127" s="3">
+        <v>-0.457451</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>441</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="2">
+        <v>13</v>
+      </c>
+      <c r="G128" s="3">
+        <v>-59.853119</v>
+      </c>
+      <c r="H128" s="3">
+        <v>3.7100000000000002E-4</v>
+      </c>
+      <c r="I128" s="3">
+        <v>-0.41859400000000002</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0.42002800000000001</v>
+      </c>
+      <c r="K128" s="3">
+        <v>-0.53511399999999998</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-0.40667199999999998</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>441</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="2">
+        <v>29</v>
+      </c>
+      <c r="G129" s="3">
+        <v>-93.69014</v>
+      </c>
+      <c r="H129" s="3">
+        <v>-3.0850000000000001E-3</v>
+      </c>
+      <c r="I129" s="3">
+        <v>-0.16939499999999999</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0.167794</v>
+      </c>
+      <c r="K129" s="3">
+        <v>-0.52467200000000003</v>
+      </c>
+      <c r="L129" s="3">
+        <v>-0.335372</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>441</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="2">
+        <v>30</v>
+      </c>
+      <c r="G130" s="3">
+        <v>-61.967373000000002</v>
+      </c>
+      <c r="H130" s="3">
+        <v>-3.4640000000000001E-3</v>
+      </c>
+      <c r="I130" s="3">
+        <v>-0.155363</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0.158473</v>
+      </c>
+      <c r="K130" s="3">
+        <v>-0.57504299999999997</v>
+      </c>
+      <c r="L130" s="3">
+        <v>-0.40896700000000002</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>441</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="2">
+        <v>32</v>
+      </c>
+      <c r="G131" s="3">
+        <v>-61.108291999999999</v>
+      </c>
+      <c r="H131" s="3">
+        <v>-3.3519999999999999E-3</v>
+      </c>
+      <c r="I131" s="3">
+        <v>-0.13807700000000001</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0.16426399999999999</v>
+      </c>
+      <c r="K131" s="3">
+        <v>-0.39940500000000001</v>
+      </c>
+      <c r="L131" s="3">
+        <v>-0.27297900000000003</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>441</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="2">
         <v>33</v>
       </c>
-      <c r="G127" s="3">
-        <v>-56.950695000000003</v>
-      </c>
-      <c r="H127" s="3">
-        <v>1.1061E-2</v>
-      </c>
-      <c r="I127" s="3">
-        <v>0.43170999999999998</v>
-      </c>
-      <c r="J127" s="3">
-        <v>0.200795</v>
-      </c>
-      <c r="K127" s="3">
-        <v>0.53365600000000002</v>
-      </c>
-      <c r="L127" s="3">
-        <v>-0.24821199999999999</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>68</v>
+      <c r="G132" s="3">
+        <v>-61.146464999999999</v>
+      </c>
+      <c r="H132" s="3">
+        <v>-3.264E-3</v>
+      </c>
+      <c r="I132" s="3">
+        <v>-0.156942</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0.170374</v>
+      </c>
+      <c r="K132" s="3">
+        <v>-0.47822700000000001</v>
+      </c>
+      <c r="L132" s="3">
+        <v>-0.33696599999999999</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>441</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="2">
+        <v>40</v>
+      </c>
+      <c r="G133" s="3">
+        <v>-92.396797000000007</v>
+      </c>
+      <c r="H133" s="3">
+        <v>5.4900000000000001E-4</v>
+      </c>
+      <c r="I133" s="3">
+        <v>-0.43104799999999999</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0.41744900000000001</v>
+      </c>
+      <c r="K133" s="3">
+        <v>-0.58155900000000005</v>
+      </c>
+      <c r="L133" s="3">
+        <v>-0.40507799999999999</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>441</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="2">
+        <v>2</v>
+      </c>
+      <c r="G134" s="3">
+        <v>-92.595969999999994</v>
+      </c>
+      <c r="H134" s="3">
+        <v>-3.173E-3</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.237511</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0.16168399999999999</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0.20547399999999999</v>
+      </c>
+      <c r="L134" s="3">
+        <v>-0.27138499999999999</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>441</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="2">
+        <v>4</v>
+      </c>
+      <c r="G135" s="3">
+        <v>-93.455048000000005</v>
+      </c>
+      <c r="H135" s="3">
+        <v>-3.2850000000000002E-3</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0.20632800000000001</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0.155894</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0.356207</v>
+      </c>
+      <c r="L135" s="3">
+        <v>-0.40737299999999999</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>441</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="2">
+        <v>6</v>
+      </c>
+      <c r="G136" s="3">
+        <v>-92.819946000000002</v>
+      </c>
+      <c r="H136" s="3">
+        <v>-2.2699999999999999E-4</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0.51843099999999998</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0.38363700000000001</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0.42144399999999999</v>
+      </c>
+      <c r="L136" s="3">
+        <v>-0.45419599999999999</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>441</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="2">
+        <v>8</v>
+      </c>
+      <c r="G137" s="3">
+        <v>-91.960860999999994</v>
+      </c>
+      <c r="H137" s="3">
+        <v>-1.16E-4</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0.54961400000000005</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0.38942700000000002</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0.27071099999999998</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-0.31820900000000002</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>441</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="2">
+        <v>10</v>
+      </c>
+      <c r="G138" s="3">
+        <v>-60.276263999999998</v>
+      </c>
+      <c r="H138" s="3">
+        <v>-4.06E-4</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0.537076</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0.386216</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0.47171400000000002</v>
+      </c>
+      <c r="L138" s="3">
+        <v>-0.45578999999999997</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>441</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="2">
+        <v>12</v>
+      </c>
+      <c r="G139" s="3">
+        <v>-58.939315999999998</v>
+      </c>
+      <c r="H139" s="3">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0.57725099999999996</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0.41315800000000003</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0.51011899999999999</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-0.457451</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>441</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="2">
+        <v>13</v>
+      </c>
+      <c r="G140" s="3">
+        <v>-58.797119000000002</v>
+      </c>
+      <c r="H140" s="3">
+        <v>3.7100000000000002E-4</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.58947400000000005</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0.42002800000000001</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0.44089800000000001</v>
+      </c>
+      <c r="L140" s="3">
+        <v>-0.40667199999999998</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>441</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="2">
+        <v>22</v>
+      </c>
+      <c r="G141" s="3">
+        <v>-92.677750000000003</v>
+      </c>
+      <c r="H141" s="3">
+        <v>-9.3999999999999994E-5</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.53065499999999999</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0.39050699999999999</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0.35222300000000001</v>
+      </c>
+      <c r="L141" s="3">
+        <v>-0.40341700000000003</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>441</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="2">
+        <v>29</v>
+      </c>
+      <c r="G142" s="3">
+        <v>-92.634140000000002</v>
+      </c>
+      <c r="H142" s="3">
+        <v>-3.0850000000000001E-3</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0.23331099999999999</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0.167794</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0.28022000000000002</v>
+      </c>
+      <c r="L142" s="3">
+        <v>-0.335372</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>441</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="2">
+        <v>30</v>
+      </c>
+      <c r="G143" s="3">
+        <v>-60.911372999999998</v>
+      </c>
+      <c r="H143" s="3">
+        <v>-3.4640000000000001E-3</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0.22497300000000001</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0.158473</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0.40647699999999998</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-0.40896700000000002</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>441</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="2">
+        <v>32</v>
+      </c>
+      <c r="G144" s="3">
+        <v>-60.052292000000001</v>
+      </c>
+      <c r="H144" s="3">
+        <v>-3.3519999999999999E-3</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0.25615599999999999</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0.16426399999999999</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0.25574400000000003</v>
+      </c>
+      <c r="L144" s="3">
+        <v>-0.27297900000000003</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>441</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="2">
+        <v>33</v>
+      </c>
+      <c r="G145" s="3">
+        <v>-60.090465999999999</v>
+      </c>
+      <c r="H145" s="3">
+        <v>-3.264E-3</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.25195600000000001</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0.170374</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0.33049000000000001</v>
+      </c>
+      <c r="L145" s="3">
+        <v>-0.33696599999999999</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>442</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="2">
+        <v>2</v>
+      </c>
+      <c r="G146" s="3">
+        <v>-94.844184999999996</v>
+      </c>
+      <c r="H146" s="3">
+        <v>-3.5669999999999999E-3</v>
+      </c>
+      <c r="I146" s="3">
+        <v>-0.774899</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0.87967799999999996</v>
+      </c>
+      <c r="K146" s="3">
+        <v>-0.40801500000000002</v>
+      </c>
+      <c r="L146" s="3">
+        <v>-0.19187899999999999</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>442</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="2">
+        <v>4</v>
+      </c>
+      <c r="G147" s="3">
+        <v>-94.234306000000004</v>
+      </c>
+      <c r="H147" s="3">
+        <v>-3.0560000000000001E-3</v>
+      </c>
+      <c r="I147" s="3">
+        <v>-0.79255900000000001</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0.89506699999999995</v>
+      </c>
+      <c r="K147" s="3">
+        <v>-0.32755600000000001</v>
+      </c>
+      <c r="L147" s="3">
+        <v>-0.137183</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>442</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="2">
+        <v>6</v>
+      </c>
+      <c r="G148" s="3">
+        <v>-93.473740000000006</v>
+      </c>
+      <c r="H148" s="3">
+        <v>-5.6080000000000001E-3</v>
+      </c>
+      <c r="I148" s="3">
+        <v>-0.59482100000000004</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0.73577000000000004</v>
+      </c>
+      <c r="K148" s="3">
+        <v>-0.19936599999999999</v>
+      </c>
+      <c r="L148" s="3">
+        <v>-2.4766E-2</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>442</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="2">
+        <v>8</v>
+      </c>
+      <c r="G149" s="3">
+        <v>-94.743606999999997</v>
+      </c>
+      <c r="H149" s="3">
+        <v>-5.5009999999999998E-3</v>
+      </c>
+      <c r="I149" s="3">
+        <v>-0.68133500000000002</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="K149" s="3">
+        <v>-0.358323</v>
+      </c>
+      <c r="L149" s="3">
+        <v>-0.151555</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>442</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="2">
+        <v>10</v>
+      </c>
+      <c r="G150" s="3">
+        <v>-63.19894</v>
+      </c>
+      <c r="H150" s="3">
+        <v>-3.1449999999999998E-3</v>
+      </c>
+      <c r="I150" s="3">
+        <v>-0.56401900000000005</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0.63189600000000001</v>
+      </c>
+      <c r="K150" s="3">
+        <v>-0.40154200000000001</v>
+      </c>
+      <c r="L150" s="3">
+        <v>-0.23469200000000001</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>442</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="2">
+        <v>15</v>
+      </c>
+      <c r="G151" s="3">
+        <v>-93.677490000000006</v>
+      </c>
+      <c r="H151" s="3">
+        <v>-3.7580000000000001E-3</v>
+      </c>
+      <c r="I151" s="3">
+        <v>-0.78562299999999996</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0.89446700000000001</v>
+      </c>
+      <c r="K151" s="3">
+        <v>-0.35265299999999999</v>
+      </c>
+      <c r="L151" s="3">
+        <v>-0.169736</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <v>442</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="2">
+        <v>22</v>
+      </c>
+      <c r="G152" s="3">
+        <v>-94.176772999999997</v>
+      </c>
+      <c r="H152" s="3">
+        <v>-5.3420000000000004E-3</v>
+      </c>
+      <c r="I152" s="3">
+        <v>-0.63562700000000005</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0.75734100000000004</v>
+      </c>
+      <c r="K152" s="3">
+        <v>-0.30999900000000002</v>
+      </c>
+      <c r="L152" s="3">
+        <v>-0.10321900000000001</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>442</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="2">
+        <v>28</v>
+      </c>
+      <c r="G153" s="3">
+        <v>-61.364837999999999</v>
+      </c>
+      <c r="H153" s="3">
+        <v>-5.1120000000000002E-3</v>
+      </c>
+      <c r="I153" s="3">
+        <v>-0.43547000000000002</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0.52434999999999998</v>
+      </c>
+      <c r="K153" s="3">
+        <v>-0.248165</v>
+      </c>
+      <c r="L153" s="3">
+        <v>-0.12389</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>442</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" s="2">
+        <v>29</v>
+      </c>
+      <c r="G154" s="3">
+        <v>-93.566895000000002</v>
+      </c>
+      <c r="H154" s="3">
+        <v>-4.8310000000000002E-3</v>
+      </c>
+      <c r="I154" s="3">
+        <v>-0.65328699999999995</v>
+      </c>
+      <c r="J154" s="3">
+        <v>0.77273099999999995</v>
+      </c>
+      <c r="K154" s="3">
+        <v>-0.229541</v>
+      </c>
+      <c r="L154" s="3">
+        <v>-4.8522999999999997E-2</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>442</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="2">
+        <v>2</v>
+      </c>
+      <c r="G155" s="3">
+        <v>-92.417739999999995</v>
+      </c>
+      <c r="H155" s="3">
+        <v>-5.6080000000000001E-3</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1.1710259999999999</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0.73577000000000004</v>
+      </c>
+      <c r="K155" s="3">
+        <v>-0.139928</v>
+      </c>
+      <c r="L155" s="3">
+        <v>-2.4766E-2</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>442</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="2">
+        <v>4</v>
+      </c>
+      <c r="G156" s="3">
+        <v>-93.687607</v>
+      </c>
+      <c r="H156" s="3">
+        <v>-5.5009999999999998E-3</v>
+      </c>
+      <c r="I156" s="3">
+        <v>1.266985</v>
+      </c>
+      <c r="J156" s="3">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="K156" s="3">
+        <v>5.4089999999999997E-3</v>
+      </c>
+      <c r="L156" s="3">
+        <v>-0.151555</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>442</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="2">
+        <v>6</v>
+      </c>
+      <c r="G157" s="3">
+        <v>-93.788184999999999</v>
+      </c>
+      <c r="H157" s="3">
+        <v>-3.5669999999999999E-3</v>
+      </c>
+      <c r="I157" s="3">
+        <v>1.336327</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0.87967799999999996</v>
+      </c>
+      <c r="K157" s="3">
+        <v>5.2495E-2</v>
+      </c>
+      <c r="L157" s="3">
+        <v>-0.19187899999999999</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>442</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="2">
+        <v>8</v>
+      </c>
+      <c r="G158" s="3">
+        <v>-93.178307000000004</v>
+      </c>
+      <c r="H158" s="3">
+        <v>-3.0560000000000001E-3</v>
+      </c>
+      <c r="I158" s="3">
+        <v>1.3556029999999999</v>
+      </c>
+      <c r="J158" s="3">
+        <v>0.89506699999999995</v>
+      </c>
+      <c r="K158" s="3">
+        <v>1.6819999999999999E-3</v>
+      </c>
+      <c r="L158" s="3">
+        <v>-0.137183</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>442</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="2">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3">
+        <v>-62.142941</v>
+      </c>
+      <c r="H159" s="3">
+        <v>-3.1449999999999998E-3</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0.95253200000000005</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0.63189600000000001</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0.16172</v>
+      </c>
+      <c r="L159" s="3">
+        <v>-0.23469200000000001</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>442</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="2">
+        <v>15</v>
+      </c>
+      <c r="G160" s="3">
+        <v>-92.621489999999994</v>
+      </c>
+      <c r="H160" s="3">
+        <v>-3.7580000000000001E-3</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1.3610990000000001</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0.89446700000000001</v>
+      </c>
+      <c r="K160" s="3">
+        <v>5.4715E-2</v>
+      </c>
+      <c r="L160" s="3">
+        <v>-0.169736</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <v>442</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" s="2">
+        <v>20</v>
+      </c>
+      <c r="G161" s="3">
+        <v>-93.120773</v>
+      </c>
+      <c r="H161" s="3">
+        <v>-5.3420000000000004E-3</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1.1819919999999999</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0.75734100000000004</v>
+      </c>
+      <c r="K161" s="3">
+        <v>-6.2273000000000002E-2</v>
+      </c>
+      <c r="L161" s="3">
+        <v>-0.10321900000000001</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>442</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="2">
+        <v>28</v>
+      </c>
+      <c r="G162" s="3">
+        <v>-60.308838000000002</v>
+      </c>
+      <c r="H162" s="3">
+        <v>-5.1120000000000002E-3</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0.82296899999999995</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0.52434999999999998</v>
+      </c>
+      <c r="K162" s="3">
+        <v>4.9169999999999998E-2</v>
+      </c>
+      <c r="L162" s="3">
+        <v>-0.12389</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>442</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="2">
+        <v>29</v>
+      </c>
+      <c r="G163" s="3">
+        <v>-92.510895000000005</v>
+      </c>
+      <c r="H163" s="3">
+        <v>-4.8310000000000002E-3</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1.2012670000000001</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0.77273099999999995</v>
+      </c>
+      <c r="K163" s="3">
+        <v>-0.11308600000000001</v>
+      </c>
+      <c r="L163" s="3">
+        <v>-4.8522999999999997E-2</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>442</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="2">
+        <v>43</v>
+      </c>
+      <c r="G164" s="3">
+        <v>-60.976246000000003</v>
+      </c>
+      <c r="H164" s="3">
+        <v>-3.3370000000000001E-3</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0.97730499999999998</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0.64668599999999998</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0.163939</v>
+      </c>
+      <c r="L164" s="3">
+        <v>-0.21254999999999999</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
